--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KayJan\test-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCDE4E7-9794-4374-8065-2EBAE24A4D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AFA170-018D-4B86-B28F-96E82F8FBB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="829" firstSheet="3" activeTab="9" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="6720" yWindow="-13710" windowWidth="14745" windowHeight="11685" tabRatio="829" firstSheet="9" activeTab="12" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="784">
   <si>
     <t>Card</t>
   </si>
@@ -2443,15 +2443,54 @@
   <si>
     <t>Time to fall in love with myself ❤️</t>
   </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Bl</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Br2</t>
+  </si>
+  <si>
+    <t>Br1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4508,8 +4547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E751FA87-3BEA-40CD-8458-CB61106840D4}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5152,9 +5191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E74C7-997C-4C85-8502-804A6B1DB83E}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5198,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C6" t="s">
         <v>579</v>
@@ -5209,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C7" t="s">
         <v>580</v>
@@ -5220,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>775</v>
       </c>
       <c r="C8" t="s">
         <v>581</v>
@@ -5231,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C9" t="s">
         <v>582</v>
@@ -5242,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C10" t="s">
         <v>583</v>
@@ -5253,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C11" t="s">
         <v>584</v>
@@ -5264,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C12" t="s">
         <v>585</v>
@@ -5275,7 +5312,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C13" t="s">
         <v>586</v>
@@ -5286,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C14" t="s">
         <v>587</v>
@@ -5297,7 +5334,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C15" t="s">
         <v>588</v>
@@ -5308,7 +5345,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C16" t="s">
         <v>589</v>
@@ -5319,7 +5356,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C17" t="s">
         <v>590</v>
@@ -5330,7 +5367,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C18" t="s">
         <v>591</v>
@@ -5341,7 +5378,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C19" t="s">
         <v>592</v>
@@ -5352,7 +5389,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C20" t="s">
         <v>593</v>
@@ -5363,7 +5400,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C21" t="s">
         <v>594</v>
@@ -5374,7 +5411,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C22" t="s">
         <v>595</v>
@@ -5385,7 +5422,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C23" t="s">
         <v>596</v>
@@ -5396,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C24" t="s">
         <v>597</v>
@@ -5407,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C25" t="s">
         <v>598</v>
@@ -5418,7 +5455,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>775</v>
       </c>
       <c r="C26" t="s">
         <v>599</v>
@@ -5429,7 +5466,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C27" t="s">
         <v>600</v>
@@ -5440,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C28" t="s">
         <v>601</v>
@@ -5451,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C29" t="s">
         <v>602</v>
@@ -5462,13 +5499,14 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>775</v>
       </c>
       <c r="C30" t="s">
         <v>603</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5734,9 +5772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941E7727-1D5F-48BE-8AE3-2119045C4067}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5774,7 +5810,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
@@ -5782,7 +5818,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
@@ -5790,7 +5826,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B8" t="s">
         <v>139</v>
@@ -5798,7 +5834,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B9" t="s">
         <v>140</v>
@@ -5806,7 +5842,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B10" t="s">
         <v>141</v>
@@ -5814,7 +5850,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B11" t="s">
         <v>142</v>
@@ -5822,7 +5858,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
@@ -5830,7 +5866,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B13" t="s">
         <v>144</v>
@@ -5838,7 +5874,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B14" t="s">
         <v>145</v>
@@ -5846,7 +5882,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B15" t="s">
         <v>146</v>
@@ -5854,7 +5890,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B16" t="s">
         <v>147</v>
@@ -5862,7 +5898,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B17" t="s">
         <v>148</v>
@@ -5870,7 +5906,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B18" t="s">
         <v>149</v>
@@ -5878,7 +5914,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B19" t="s">
         <v>150</v>
@@ -5886,7 +5922,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B20" t="s">
         <v>151</v>
@@ -5894,7 +5930,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B21" t="s">
         <v>152</v>
@@ -5902,7 +5938,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B22" t="s">
         <v>153</v>
@@ -5910,7 +5946,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B23" t="s">
         <v>154</v>
@@ -5918,7 +5954,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B24" t="s">
         <v>155</v>
@@ -5926,7 +5962,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B25" t="s">
         <v>156</v>
@@ -5934,7 +5970,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B26" t="s">
         <v>157</v>
@@ -5942,7 +5978,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B27" t="s">
         <v>158</v>
@@ -5950,7 +5986,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="B28" t="s">
         <v>159</v>
@@ -5958,7 +5994,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>783</v>
       </c>
       <c r="B29" t="s">
         <v>160</v>
@@ -5966,7 +6002,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>783</v>
       </c>
       <c r="B30" t="s">
         <v>161</v>
@@ -5981,7 +6017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BB1692-6F6B-4FFF-B841-EEF12529B92E}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6025,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -6036,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -6047,7 +6085,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -6058,7 +6096,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C9" t="s">
         <v>122</v>
@@ -6069,7 +6107,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -6080,7 +6118,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -6091,7 +6129,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C12" t="s">
         <v>125</v>
@@ -6102,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
@@ -6113,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
@@ -6124,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C15" t="s">
         <v>128</v>
@@ -6135,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C16" t="s">
         <v>129</v>
@@ -6146,7 +6184,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C17" t="s">
         <v>130</v>
@@ -6157,7 +6195,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>777</v>
       </c>
       <c r="C18" t="s">
         <v>131</v>
@@ -6168,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>777</v>
       </c>
       <c r="C19" t="s">
         <v>132</v>
@@ -6179,7 +6217,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>777</v>
       </c>
       <c r="C20" t="s">
         <v>133</v>
@@ -6190,7 +6228,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>777</v>
       </c>
       <c r="C21" t="s">
         <v>134</v>
@@ -6201,7 +6239,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C22" t="s">
         <v>135</v>
@@ -6212,7 +6250,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C23" t="s">
         <v>136</v>
@@ -6271,7 +6309,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -6282,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
@@ -6293,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -6304,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -6315,7 +6353,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
@@ -6326,7 +6364,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
@@ -6337,7 +6375,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C12" t="s">
         <v>109</v>
@@ -6348,7 +6386,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C13" t="s">
         <v>110</v>
@@ -6359,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -6370,7 +6408,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C15" t="s">
         <v>112</v>
@@ -6381,7 +6419,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C16" t="s">
         <v>113</v>
@@ -6392,7 +6430,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
@@ -6403,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C18" t="s">
         <v>115</v>
@@ -6414,7 +6452,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>778</v>
       </c>
       <c r="C19" t="s">
         <v>116</v>
@@ -6425,7 +6463,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C20" t="s">
         <v>117</v>
@@ -6436,7 +6474,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>778</v>
       </c>
       <c r="C21" t="s">
         <v>118</v>
@@ -6447,7 +6485,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>778</v>
       </c>
       <c r="C22" t="s">
         <v>119</v>
@@ -6506,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -6517,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -6528,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -6539,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
@@ -6550,7 +6588,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C10" t="s">
         <v>82</v>
@@ -6561,7 +6599,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
@@ -6572,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
@@ -6583,7 +6621,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
@@ -6594,7 +6632,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -6605,7 +6643,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -6616,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
@@ -6627,7 +6665,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C17" t="s">
         <v>89</v>
@@ -6638,7 +6676,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C18" t="s">
         <v>90</v>
@@ -6649,7 +6687,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -6660,7 +6698,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C20" t="s">
         <v>92</v>
@@ -6671,7 +6709,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
@@ -6682,7 +6720,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
@@ -6693,7 +6731,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C23" t="s">
         <v>95</v>
@@ -6704,7 +6742,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C24" t="s">
         <v>96</v>
@@ -6715,7 +6753,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>776</v>
       </c>
       <c r="C25" t="s">
         <v>97</v>
@@ -6726,7 +6764,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>776</v>
       </c>
       <c r="C26" t="s">
         <v>98</v>
@@ -6737,7 +6775,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>776</v>
       </c>
       <c r="C27" t="s">
         <v>99</v>
@@ -6748,7 +6786,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C28" t="s">
         <v>100</v>
@@ -6759,7 +6797,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>774</v>
       </c>
       <c r="C29" t="s">
         <v>101</v>
@@ -6770,7 +6808,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>776</v>
       </c>
       <c r="C30" t="s">
         <v>102</v>
@@ -6829,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -6840,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -6851,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -6862,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -6873,7 +6911,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -6884,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -6895,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -6906,7 +6944,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -6917,7 +6955,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -6928,7 +6966,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -6939,7 +6977,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -6950,7 +6988,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -6961,7 +6999,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -6972,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
@@ -6983,7 +7021,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -6994,7 +7032,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
@@ -7005,7 +7043,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -7016,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -7027,7 +7065,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
@@ -7038,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
@@ -7049,7 +7087,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
@@ -7060,7 +7098,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -7071,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
@@ -7082,7 +7120,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>41</v>
@@ -7093,7 +7131,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -7146,7 +7184,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -7154,7 +7192,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -7162,7 +7200,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -7170,7 +7208,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -7178,7 +7216,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -7186,7 +7224,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7194,7 +7232,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -7202,7 +7240,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -7210,7 +7248,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -7218,7 +7256,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -7226,7 +7264,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -7234,7 +7272,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -7242,7 +7280,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -7250,7 +7288,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -7258,7 +7296,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -7266,7 +7304,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -7274,7 +7312,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
@@ -7282,7 +7320,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -7290,7 +7328,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -7298,7 +7336,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -7306,7 +7344,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -7314,7 +7352,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -7322,7 +7360,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
@@ -7330,7 +7368,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -7338,7 +7376,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>780</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -8808,7 +8846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021C946B-314F-4475-9B2D-C8EA00D9D464}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:B56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9314,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>773</v>
       </c>
       <c r="C48" t="s">
         <v>500</v>
@@ -9325,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>773</v>
       </c>
       <c r="C49" t="s">
         <v>501</v>
@@ -9336,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>773</v>
       </c>
       <c r="C50" t="s">
         <v>502</v>
@@ -9347,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>773</v>
       </c>
       <c r="C51" t="s">
         <v>503</v>
@@ -9358,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>773</v>
       </c>
       <c r="C52" t="s">
         <v>504</v>
@@ -9369,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>773</v>
       </c>
       <c r="C53" t="s">
         <v>405</v>
@@ -9380,7 +9420,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>773</v>
       </c>
       <c r="C54" t="s">
         <v>505</v>
@@ -9391,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>773</v>
       </c>
       <c r="C55" t="s">
         <v>506</v>
@@ -9402,7 +9442,7 @@
         <v>760</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>773</v>
       </c>
       <c r="C56" t="s">
         <v>507</v>

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KayJan\test-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AFA170-018D-4B86-B28F-96E82F8FBB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03587DC4-1623-4F51-82C8-F0B071A0FE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="-13710" windowWidth="14745" windowHeight="11685" tabRatio="829" firstSheet="9" activeTab="12" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="829" firstSheet="6" activeTab="8" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="787">
   <si>
     <t>Card</t>
   </si>
@@ -2027,45 +2027,6 @@
     <t>Wild Card Write down the top 3 things\n you're most grateful for in\n your partner. 30 seconds.\n Compare.</t>
   </si>
   <si>
-    <t>What part(s) of yourself\n have you been minimizing that\n you're ready to finally own?\n Permission to (own it).</t>
-  </si>
-  <si>
-    <t>Who do you feel misunderstood by? What do you wish they would come to understand?</t>
-  </si>
-  <si>
-    <t>What lesson in love\n took you the longest\n to learn?</t>
-  </si>
-  <si>
-    <t>What act of kindness\n from a stranger will\n you never forget?</t>
-  </si>
-  <si>
-    <t>What has your heart\n been telling you that\n you've been ignoring?</t>
-  </si>
-  <si>
-    <t>What have you not forgiven that hurts you the most?</t>
-  </si>
-  <si>
-    <t>What have you envied\n in the past that you\n can laugh at now?</t>
-  </si>
-  <si>
-    <t>What door are you most\n grateful for closing that\n felt like the end of\n the world at the time? What\n did it open for you?</t>
-  </si>
-  <si>
-    <t>What do you wish\n you had the courage\n to do? To say?</t>
-  </si>
-  <si>
-    <t>What (blame have you been placing on someone else that you can take some accountability for?</t>
-  </si>
-  <si>
-    <t>Wild Card Set an intention for\n today, this month and\n this year. Write it out.</t>
-  </si>
-  <si>
-    <t>Wild Card Spend at least 5 minutes in nature today. Be still and observe. What did you notice?</t>
-  </si>
-  <si>
-    <t>Wild Card Write down 3 things\n you're most grateful for\n in this present moment.\n Big or small.</t>
-  </si>
-  <si>
     <t>Just by looking at me,\n what would you think\n I do for a living?</t>
   </si>
   <si>
@@ -2289,45 +2250,6 @@
   </si>
   <si>
     <t>Wild Card Finish the sentence:\n Thank you for _________.\n Both players.</t>
-  </si>
-  <si>
-    <t>When was the last time you felt complete zen? Who were you with? Where were you? What were you doing?</t>
-  </si>
-  <si>
-    <t>What is your x-factor?\n Permission to brag.</t>
-  </si>
-  <si>
-    <t>Who is a woman in your life that inspires you to be a better person? Why does she come to mind? (Send her a thank you)</t>
-  </si>
-  <si>
-    <t>What still feels vulnerable in your life? What does owning it look like for you?</t>
-  </si>
-  <si>
-    <t>Who from your past would you want to reunite with? What would you ask them?</t>
-  </si>
-  <si>
-    <t>What's the hardest truth\n you've had to own\n this past year? What has\n owning it taught you?</t>
-  </si>
-  <si>
-    <t>How has your definition of success evolved over time? What is your definition of it today? Get specific.</t>
-  </si>
-  <si>
-    <t>Who in your life do you want to build a deeper relationship with? (Be direct and tell them)</t>
-  </si>
-  <si>
-    <t>What question have you\n avoided asking someone? What\n question have you avoided\n asking yourself?</t>
-  </si>
-  <si>
-    <t>What area of your life have you made the most progress in recently? Get specific. Take a moment to congratulate yourself.</t>
-  </si>
-  <si>
-    <t>What has brought you the most unexpected joy recently?</t>
-  </si>
-  <si>
-    <t>What have you become\n newly aware of within\n yourself recently?\n Get specific.</t>
-  </si>
-  <si>
-    <t>How would you describe\n your relationship with yourself\n in one word?</t>
   </si>
   <si>
     <t>-</t>
@@ -2475,6 +2397,93 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>When was the last time you felt complete [#af2637](zen)? Who were you with? Where were you? What were you doing?</t>
+  </si>
+  <si>
+    <t>How would you describe\n your relationship with [#d0af3a](yourself)\n in one word?</t>
+  </si>
+  <si>
+    <t>What is your [#275835](x-factor)?\n Permission to brag.</t>
+  </si>
+  <si>
+    <t>Who is a [#c66532](woman) in your life that inspires you to be a better person? Why does she come to mind? (Send her a thank you)</t>
+  </si>
+  <si>
+    <t>What still feels [#c97986](vulnerable) in your life? What does owning it look like for you?</t>
+  </si>
+  <si>
+    <t>Who from your past would you want to [#5f86b5](reunite) with? What would you ask them?</t>
+  </si>
+  <si>
+    <t>What's the hardest [#275835](truth)\n you've had to own\n this past year? What has\n owning it taught you?</t>
+  </si>
+  <si>
+    <t>How has your definition of [#d0af3a](success) evolved over time? What is your definition of it today? Get specific.</t>
+  </si>
+  <si>
+    <t>Who in your life do you want to build a deeper [#af2637](relationship) with? (Be direct and tell them)</t>
+  </si>
+  <si>
+    <t>What [#5f86b5](question) have you\n avoided asking someone? What\n question have you avoided\n asking yourself?</t>
+  </si>
+  <si>
+    <t>What area of your life have you made the most [#c97986](progress) in recently? Get specific. Take a moment to congratulate yourself.</t>
+  </si>
+  <si>
+    <t>What part(s) of yourself\n have you been minimizing that\n you're ready to finally own?\n Permission to [#c97986](own it).</t>
+  </si>
+  <si>
+    <t>Who do you feel [#d0af3a](misunderstood) by? What do you wish they would come to understand?</t>
+  </si>
+  <si>
+    <t>What lesson in [#275835](love)\n took you the longest\n to learn?</t>
+  </si>
+  <si>
+    <t>What act of [#c66532](kindness)\n from a stranger will\n you never forget?</t>
+  </si>
+  <si>
+    <t>What has brought you the most unexpected [#c97986](joy) recently?</t>
+  </si>
+  <si>
+    <t>What has your [#af2637](heart)\n been telling you that\n you've been ignoring?</t>
+  </si>
+  <si>
+    <t>What have you not [#d0af3a](forgiven) that hurts you the most?</t>
+  </si>
+  <si>
+    <t>What have you [#c66532](envied)\n in the past that you\n can laugh at now?</t>
+  </si>
+  <si>
+    <t>What [#c97986](door) are you most\n grateful for closing that\n felt like the end of\n the world at the time? What\n did it open for you?</t>
+  </si>
+  <si>
+    <t>What do you wish\n you had the [#af2637](courage)\n to do? To say?</t>
+  </si>
+  <si>
+    <t>What [#5f86b5](blame) have you been placing on someone else that you can take some accountability for?</t>
+  </si>
+  <si>
+    <t>What have you become\n newly [#d0af3a](aware) of within\n yourself recently?\n Get specific.</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Wild Card Set an intention for\n today, this month and\n this year. Write it out.</t>
+  </si>
+  <si>
+    <t>Wild Card Spend at least 5 minutes in nature today. Be still and observe. What did you notice?</t>
+  </si>
+  <si>
+    <t>Wild Card Write down 3 things\n you're most grateful for\n in this present moment.\n Big or small.</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S2</t>
   </si>
 </sst>
 </file>
@@ -2855,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>761</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4529,7 +4538,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -4566,7 +4575,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5208,7 +5217,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5235,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C6" t="s">
         <v>579</v>
@@ -5246,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C7" t="s">
         <v>580</v>
@@ -5257,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="C8" t="s">
         <v>581</v>
@@ -5268,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C9" t="s">
         <v>582</v>
@@ -5279,7 +5288,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C10" t="s">
         <v>583</v>
@@ -5290,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C11" t="s">
         <v>584</v>
@@ -5301,7 +5310,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C12" t="s">
         <v>585</v>
@@ -5312,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C13" t="s">
         <v>586</v>
@@ -5323,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C14" t="s">
         <v>587</v>
@@ -5334,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C15" t="s">
         <v>588</v>
@@ -5345,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C16" t="s">
         <v>589</v>
@@ -5356,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C17" t="s">
         <v>590</v>
@@ -5367,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C18" t="s">
         <v>591</v>
@@ -5378,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C19" t="s">
         <v>592</v>
@@ -5389,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C20" t="s">
         <v>593</v>
@@ -5400,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C21" t="s">
         <v>594</v>
@@ -5411,7 +5420,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C22" t="s">
         <v>595</v>
@@ -5422,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C23" t="s">
         <v>596</v>
@@ -5433,7 +5442,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C24" t="s">
         <v>597</v>
@@ -5444,7 +5453,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C25" t="s">
         <v>598</v>
@@ -5455,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="C26" t="s">
         <v>599</v>
@@ -5466,7 +5475,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C27" t="s">
         <v>600</v>
@@ -5477,7 +5486,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C28" t="s">
         <v>601</v>
@@ -5488,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C29" t="s">
         <v>602</v>
@@ -5499,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="C30" t="s">
         <v>603</v>
@@ -5532,7 +5541,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5754,7 +5763,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -5772,7 +5781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941E7727-1D5F-48BE-8AE3-2119045C4067}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5789,7 +5798,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5810,7 +5819,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
@@ -5818,7 +5827,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
@@ -5826,7 +5835,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B8" t="s">
         <v>139</v>
@@ -5834,7 +5843,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B9" t="s">
         <v>140</v>
@@ -5842,7 +5851,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B10" t="s">
         <v>141</v>
@@ -5850,7 +5859,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B11" t="s">
         <v>142</v>
@@ -5858,7 +5867,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
@@ -5866,7 +5875,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B13" t="s">
         <v>144</v>
@@ -5874,7 +5883,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B14" t="s">
         <v>145</v>
@@ -5882,7 +5891,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B15" t="s">
         <v>146</v>
@@ -5890,7 +5899,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B16" t="s">
         <v>147</v>
@@ -5898,7 +5907,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B17" t="s">
         <v>148</v>
@@ -5906,7 +5915,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B18" t="s">
         <v>149</v>
@@ -5914,7 +5923,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B19" t="s">
         <v>150</v>
@@ -5922,7 +5931,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B20" t="s">
         <v>151</v>
@@ -5930,7 +5939,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B21" t="s">
         <v>152</v>
@@ -5938,7 +5947,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B22" t="s">
         <v>153</v>
@@ -5946,7 +5955,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B23" t="s">
         <v>154</v>
@@ -5954,7 +5963,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B24" t="s">
         <v>155</v>
@@ -5962,7 +5971,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B25" t="s">
         <v>156</v>
@@ -5970,7 +5979,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B26" t="s">
         <v>157</v>
@@ -5978,7 +5987,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B27" t="s">
         <v>158</v>
@@ -5986,7 +5995,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B28" t="s">
         <v>159</v>
@@ -5994,7 +6003,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="B29" t="s">
         <v>160</v>
@@ -6002,7 +6011,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="B30" t="s">
         <v>161</v>
@@ -6036,7 +6045,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6063,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -6074,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -6085,7 +6094,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -6096,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C9" t="s">
         <v>122</v>
@@ -6107,7 +6116,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -6118,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -6129,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C12" t="s">
         <v>125</v>
@@ -6140,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
@@ -6151,7 +6160,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
@@ -6162,7 +6171,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C15" t="s">
         <v>128</v>
@@ -6173,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C16" t="s">
         <v>129</v>
@@ -6184,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C17" t="s">
         <v>130</v>
@@ -6195,7 +6204,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="C18" t="s">
         <v>131</v>
@@ -6206,7 +6215,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="C19" t="s">
         <v>132</v>
@@ -6217,7 +6226,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="C20" t="s">
         <v>133</v>
@@ -6228,7 +6237,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="C21" t="s">
         <v>134</v>
@@ -6239,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C22" t="s">
         <v>135</v>
@@ -6250,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C23" t="s">
         <v>136</v>
@@ -6282,7 +6291,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6309,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -6320,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
@@ -6331,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -6342,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -6353,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
@@ -6364,7 +6373,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
@@ -6375,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C12" t="s">
         <v>109</v>
@@ -6386,7 +6395,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C13" t="s">
         <v>110</v>
@@ -6397,7 +6406,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -6408,7 +6417,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C15" t="s">
         <v>112</v>
@@ -6419,7 +6428,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C16" t="s">
         <v>113</v>
@@ -6430,7 +6439,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
@@ -6441,7 +6450,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C18" t="s">
         <v>115</v>
@@ -6452,7 +6461,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="C19" t="s">
         <v>116</v>
@@ -6463,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C20" t="s">
         <v>117</v>
@@ -6474,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="C21" t="s">
         <v>118</v>
@@ -6485,7 +6494,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="C22" t="s">
         <v>119</v>
@@ -6517,7 +6526,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6544,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -6555,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -6566,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -6577,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
@@ -6588,7 +6597,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C10" t="s">
         <v>82</v>
@@ -6599,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
@@ -6610,7 +6619,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
@@ -6621,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
@@ -6632,7 +6641,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -6643,7 +6652,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -6654,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
@@ -6665,7 +6674,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C17" t="s">
         <v>89</v>
@@ -6676,7 +6685,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C18" t="s">
         <v>90</v>
@@ -6687,7 +6696,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -6698,7 +6707,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C20" t="s">
         <v>92</v>
@@ -6709,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
@@ -6720,7 +6729,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
@@ -6731,7 +6740,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C23" t="s">
         <v>95</v>
@@ -6742,7 +6751,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C24" t="s">
         <v>96</v>
@@ -6753,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="C25" t="s">
         <v>97</v>
@@ -6764,7 +6773,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="C26" t="s">
         <v>98</v>
@@ -6775,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="C27" t="s">
         <v>99</v>
@@ -6786,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C28" t="s">
         <v>100</v>
@@ -6797,7 +6806,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C29" t="s">
         <v>101</v>
@@ -6808,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="C30" t="s">
         <v>102</v>
@@ -6840,7 +6849,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6867,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -6878,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -6889,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -6900,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -6911,7 +6920,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -6922,7 +6931,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -6933,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -6944,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -6955,7 +6964,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -6966,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -6977,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -6988,7 +6997,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -6999,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -7010,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
@@ -7021,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -7032,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
@@ -7043,7 +7052,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -7054,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -7065,7 +7074,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
@@ -7076,7 +7085,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
@@ -7087,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
@@ -7098,7 +7107,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -7109,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
@@ -7120,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>41</v>
@@ -7131,7 +7140,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -7163,7 +7172,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7184,7 +7193,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -7192,7 +7201,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -7200,7 +7209,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -7208,7 +7217,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -7216,7 +7225,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -7224,7 +7233,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7232,7 +7241,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -7240,7 +7249,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -7248,7 +7257,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -7256,7 +7265,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -7264,7 +7273,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -7272,7 +7281,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -7280,7 +7289,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -7288,7 +7297,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -7296,7 +7305,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -7304,7 +7313,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -7312,7 +7321,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
@@ -7320,7 +7329,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -7328,7 +7337,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -7336,7 +7345,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -7344,7 +7353,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -7352,7 +7361,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -7360,7 +7369,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
@@ -7368,7 +7377,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -7376,7 +7385,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -7408,7 +7417,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>762</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7938,7 +7947,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -7973,7 +7982,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8418,7 +8427,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8865,7 +8874,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -8873,7 +8882,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9354,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="C48" t="s">
         <v>500</v>
@@ -9365,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="C49" t="s">
         <v>501</v>
@@ -9376,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="C50" t="s">
         <v>502</v>
@@ -9387,7 +9396,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="C51" t="s">
         <v>503</v>
@@ -9398,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="C52" t="s">
         <v>504</v>
@@ -9409,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="C53" t="s">
         <v>405</v>
@@ -9420,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="C54" t="s">
         <v>505</v>
@@ -9431,7 +9440,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="C55" t="s">
         <v>506</v>
@@ -9439,10 +9448,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>760</v>
+        <v>734</v>
       </c>
       <c r="B56" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
       <c r="C56" t="s">
         <v>507</v>
@@ -9474,7 +9483,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9935,7 +9944,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9965,7 +9974,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9976,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9987,7 +9996,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -9998,7 +10007,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -10009,7 +10018,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -10020,7 +10029,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -10031,7 +10040,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -10042,7 +10051,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -10053,7 +10062,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -10064,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -10075,7 +10084,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -10086,7 +10095,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -10097,7 +10106,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -10108,7 +10117,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -10119,7 +10128,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -10130,7 +10139,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -10141,7 +10150,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -10152,7 +10161,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -10163,7 +10172,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -10174,7 +10183,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -10185,7 +10194,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -10196,7 +10205,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -10207,7 +10216,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -10218,7 +10227,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -10229,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -10240,7 +10249,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -10251,7 +10260,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -10262,7 +10271,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -10273,7 +10282,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -10284,7 +10293,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10295,7 +10304,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -10306,7 +10315,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -10317,7 +10326,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -10328,7 +10337,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -10339,7 +10348,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -10350,7 +10359,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -10361,7 +10370,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -10372,7 +10381,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -10383,7 +10392,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -10394,7 +10403,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -10405,7 +10414,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -10416,7 +10425,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -10427,7 +10436,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -10438,7 +10447,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -10449,7 +10458,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -10460,7 +10469,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -10471,7 +10480,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -10482,7 +10491,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -10493,7 +10502,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -10504,7 +10513,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -10533,7 +10542,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10563,7 +10572,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -10574,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10585,7 +10594,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -10596,7 +10605,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -10607,7 +10616,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -10618,7 +10627,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -10629,7 +10638,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -10640,7 +10649,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -10651,7 +10660,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -10662,7 +10671,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -10673,7 +10682,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -10684,7 +10693,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -10695,7 +10704,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -10706,7 +10715,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -10717,7 +10726,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -10728,7 +10737,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -10739,7 +10748,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -10750,7 +10759,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -10761,7 +10770,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -10772,7 +10781,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -10783,7 +10792,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -10794,7 +10803,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -10805,7 +10814,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -10816,7 +10825,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -10827,7 +10836,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -10839,7 +10848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C622C6D5-49E0-4741-BF5C-484CE802CC93}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -10856,7 +10865,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10877,210 +10886,210 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B6" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B8" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B9" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B10" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B11" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B12" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B13" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B14" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B15" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B16" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B17" t="s">
-        <v>658</v>
+        <v>769</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B18" t="s">
-        <v>659</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B19" t="s">
-        <v>660</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B20" t="s">
-        <v>661</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B21" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B22" t="s">
-        <v>662</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B23" t="s">
-        <v>663</v>
+        <v>775</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B24" t="s">
-        <v>664</v>
+        <v>776</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B25" t="s">
-        <v>665</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B26" t="s">
-        <v>666</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B27" t="s">
-        <v>667</v>
+        <v>779</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="B28" t="s">
-        <v>757</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>781</v>
       </c>
       <c r="B29" t="s">
-        <v>668</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>786</v>
       </c>
       <c r="B30" t="s">
-        <v>669</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>785</v>
       </c>
       <c r="B31" t="s">
-        <v>670</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KayJan\test-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03587DC4-1623-4F51-82C8-F0B071A0FE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4512C437-9245-480C-8415-24B88B053880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="829" firstSheet="6" activeTab="8" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="4" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -2273,79 +2273,6 @@
 one… with yourself. Ready?</t>
   </si>
   <si>
-    <t>You're human. You'll make mistakes, often at other people's expense.
-They're human. They will also make mistakes, often at your expense.
-Whether you're needing to forgive another person, or yourself, forgiveness
-can be difficult. It means letting go of the idea that things could have gone
-differently. It doesn't mean excusing bad behavior, it means freeing yourself.
-To play, either journal your responses or explore these questions with
-someone else on their forgiveness journey. When you forgive the past
-you create the space to redefine your future. Ready?</t>
-  </si>
-  <si>
-    <t>How honest are your dating experiences, really?
-Dating doesn't have to be a game, it can be as simple as
-getting to know another human being. Discovering
-compatibility with another person is only possible when
-we show up as our true selves, but we have to be willing
-to let our true selves be seen. This dating explansion pack
-can be added to the original WNRS card game. Each player
-alternates between asking and answering each question.
-How do you win? Stay honest. Ready?</t>
-  </si>
-  <si>
-    <t>What if your biggest insecurities were your greatest strengths?
-If you own it. They are! To  "own it" is to accept the truth
-and deal with it, however unpleasant it may be.
-We're Not Really Strangers and DVF came together to
-create an expansion pack all about owning the person we
-are today and the person we are becoming. To play, journal
-your answers or explore this deck with a loved one who's willing
-to dig deep. Owning who we are is the best thing we can do for
-ourselves and the people in our lives. Ready?</t>
-  </si>
-  <si>
-    <t>How well do you know your partner? How well do
-they know you? Communication creates partnership,
-but that requires sharing your truth and being open to
-receiving theirs. Especially when it's uncomfortable.
-This relationship expansion pack can be added to the
-original WNRS card game. Remember there are two
-ways to play this game. Either play safe, or play to grow.
-The second is how you win. Ready?</t>
-  </si>
-  <si>
-    <t>This conversation isn't easy. Remember,
-not everyone will be on the same level of
-understanding as you, and that's okay. This
-conversation doesn't end after one sitting, or
-after a wave of outrage online. It is a lifelong
-conversation that starts with ourselves. Ready?</t>
-  </si>
-  <si>
-    <t>When we show up as our authentic selves we empower
-others to do the same, but sometimes we need a little help
-opening up. This expansion pack is an invitation to deeply connect
-with others and with yourself. To play, both players ask each other
-questions; you may even reveal parts of yourself that you never
-met before. Ready?</t>
-  </si>
-  <si>
-    <t>We all know that it's important to vote, but we wanted to dig a
-little deeper. These questions are meant to explore not only our
-knowledge of politics and the process of voting but also our limiting
-beliefs. Not just why we're ready to vote, but why we may be on the
-fence. And finally some tools, resources, and prompts to go beyond
-just voting, but to vote informed. To play, find a friend or loved one
-wanting to explore an important topic that is often messier than a
-check on the ballot. Ready?
-Disclaimer: It's important to have open conversations with others,
-even when we don't agree. However, make sure to explore these
-questions with people you feel safe with. Political conversations can
-get charged. Practice healthy boundaries and step away from any
-conversation that doesn't show mutual respect.</t>
-  </si>
-  <si>
     <t>If you're not speaking your truth, you're storing it. And that gets heavy.
 This pack is an invitation to get it all off your chest. Use it to self reflect,
 or play with someone who's ready to dig deep with you. Being honest
@@ -2353,16 +2280,6 @@
 can do for youself and the people in your life. Ready?</t>
   </si>
   <si>
-    <t>Self-love is about calling ourselves on our own stuff, not just
-everybody's else's. It's about being kind to ourselves, even when
-we mess up. And appreciating ourselves, even when no one else
-does. Add this edition to your self-love practice. Answer these
-questions at your own pace. Journal your answers or play with
-a friend who is also on their self-love journey. Revisit these
-questions as often as you need. The more we love ourselves,
-the easier it becomes to give and receive love from others. Ready?</t>
-  </si>
-  <si>
     <t>Time to fall in love with myself ❤️</t>
   </si>
   <si>
@@ -2484,6 +2401,78 @@
   </si>
   <si>
     <t>S2</t>
+  </si>
+  <si>
+    <t>When we show up as our authentic selves we empower others to do the same,
+but sometimes we need a little help opening up. This expansion pack is an
+invitation to deeply connect with others and with yourself. To play, both players
+ask each other questions; you may even reveal parts of yourself that you never
+met before. Ready?</t>
+  </si>
+  <si>
+    <t>How honest are your dating experiences, really? Dating doesn't have to be
+a game, it can be as simple as getting to know another human being.
+Discovering compatibility with another person is only possible when we
+show up as our true selves, but we have to be willing to let our true selves
+be seen. This dating explansion pack can be added to the original WNRS
+card game. Each player alternates between asking and answering each
+question. How do you win? Stay honest. Ready?</t>
+  </si>
+  <si>
+    <t>What if your biggest insecurities were your greatest strengths? If you own it.
+They are! To  "own it" is to accept the truth and deal with it, however unpleasant
+it may be. We're Not Really Strangers and DVF came together to create an
+expansion pack all about owning the person we are today and the person we
+are becoming. To play, journal your answers or explore this deck with a loved
+one who's willing to dig deep. Owning who we are is the best thing we can do for
+ourselves and the people in our lives. Ready?</t>
+  </si>
+  <si>
+    <t>How well do you know your partner? How well do they know you?
+Communication creates partnership, but that requires sharing your truth
+and being open to receiving theirs. Especially when it's uncomfortable.
+This relationship expansion pack can be added to the original WNRS card
+game. Remember there are two ways to play this game. Either play safe,
+or play to grow. The second is how you win. Ready?</t>
+  </si>
+  <si>
+    <t>This conversation isn't easy. Remember, not everyone will be on the same
+level of understanding as you, and that's okay. This conversation doesn't
+end after one sitting, or after a wave of outrage online. It is a lifelong
+conversation that starts with ourselves. Ready?</t>
+  </si>
+  <si>
+    <t>We all know that it's important to vote, but we wanted to dig a little deeper.
+These questions are meant to explore not only our knowledge of politics and
+the process of voting but also our limiting beliefs. Not just why we're ready
+to vote, but why we may be on the fence. And finally some tools, resources,
+and prompts to go beyond just voting, but to vote informed. To play, find a
+friend or loved one wanting to explore an important topic that is often 
+messier than a check on the ballot. Ready?
+Disclaimer: It's important to have open conversations with others, even
+when we don't agree. However, make sure to explore these questions with
+people you feel safe with. Political conversations can get charged. Practice
+healthy boundaries and step away from any conversation that doesn't
+show mutual respect.</t>
+  </si>
+  <si>
+    <t>You're human. You'll make mistakes, often at other people's expense. They're
+human. They will also make mistakes, often at your expense. Whether you're
+needing to forgive another person, or yourself, forgiveness can be difficult.
+It means letting go of the idea that things could have gone differently. It
+doesn't mean excusing bad behavior, it means freeing yourself. To play, either
+journal your responses or explore these questions with someone else on their
+forgiveness journey. When you forgive the past you create the space to
+redefine your future. Ready?</t>
+  </si>
+  <si>
+    <t>Self-love is about calling ourselves on our own stuff, not just everybody's else's.
+It's about being kind to ourselves, even when we mess up. And appreciating
+ourselves, even when no one else does. Add this edition to your self-love practice.
+Answer these questions at your own pace. Journal your answers or play with
+a friend who is also on their self-love journey. Revisit these questions as often
+as you need. The more we love ourselves, the easier it becomes to give and
+receive love from others. Ready?</t>
   </si>
 </sst>
 </file>
@@ -4556,9 +4545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E751FA87-3BEA-40CD-8458-CB61106840D4}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4575,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5200,7 +5187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E74C7-997C-4C85-8502-804A6B1DB83E}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5217,7 +5206,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5244,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C6" t="s">
         <v>579</v>
@@ -5255,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C7" t="s">
         <v>580</v>
@@ -5266,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C8" t="s">
         <v>581</v>
@@ -5277,7 +5266,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C9" t="s">
         <v>582</v>
@@ -5288,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C10" t="s">
         <v>583</v>
@@ -5299,7 +5288,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C11" t="s">
         <v>584</v>
@@ -5310,7 +5299,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C12" t="s">
         <v>585</v>
@@ -5321,7 +5310,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C13" t="s">
         <v>586</v>
@@ -5332,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C14" t="s">
         <v>587</v>
@@ -5343,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C15" t="s">
         <v>588</v>
@@ -5354,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C16" t="s">
         <v>589</v>
@@ -5365,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C17" t="s">
         <v>590</v>
@@ -5376,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C18" t="s">
         <v>591</v>
@@ -5387,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C19" t="s">
         <v>592</v>
@@ -5398,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C20" t="s">
         <v>593</v>
@@ -5409,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C21" t="s">
         <v>594</v>
@@ -5420,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C22" t="s">
         <v>595</v>
@@ -5431,7 +5420,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C23" t="s">
         <v>596</v>
@@ -5442,7 +5431,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C24" t="s">
         <v>597</v>
@@ -5453,7 +5442,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C25" t="s">
         <v>598</v>
@@ -5464,7 +5453,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C26" t="s">
         <v>599</v>
@@ -5475,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C27" t="s">
         <v>600</v>
@@ -5486,7 +5475,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C28" t="s">
         <v>601</v>
@@ -5497,7 +5486,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C29" t="s">
         <v>602</v>
@@ -5508,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C30" t="s">
         <v>603</v>
@@ -5798,7 +5787,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>743</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5819,7 +5808,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
@@ -5827,7 +5816,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
@@ -5835,7 +5824,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B8" t="s">
         <v>139</v>
@@ -5843,7 +5832,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B9" t="s">
         <v>140</v>
@@ -5851,7 +5840,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
         <v>141</v>
@@ -5859,7 +5848,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B11" t="s">
         <v>142</v>
@@ -5867,7 +5856,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
@@ -5875,7 +5864,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B13" t="s">
         <v>144</v>
@@ -5883,7 +5872,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B14" t="s">
         <v>145</v>
@@ -5891,7 +5880,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B15" t="s">
         <v>146</v>
@@ -5899,7 +5888,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B16" t="s">
         <v>147</v>
@@ -5907,7 +5896,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B17" t="s">
         <v>148</v>
@@ -5915,7 +5904,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B18" t="s">
         <v>149</v>
@@ -5923,7 +5912,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B19" t="s">
         <v>150</v>
@@ -5931,7 +5920,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B20" t="s">
         <v>151</v>
@@ -5939,7 +5928,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B21" t="s">
         <v>152</v>
@@ -5947,7 +5936,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B22" t="s">
         <v>153</v>
@@ -5955,7 +5944,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B23" t="s">
         <v>154</v>
@@ -5963,7 +5952,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B24" t="s">
         <v>155</v>
@@ -5971,7 +5960,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B25" t="s">
         <v>156</v>
@@ -5979,7 +5968,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B26" t="s">
         <v>157</v>
@@ -5987,7 +5976,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B27" t="s">
         <v>158</v>
@@ -5995,7 +5984,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B28" t="s">
         <v>159</v>
@@ -6003,7 +5992,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B29" t="s">
         <v>160</v>
@@ -6011,7 +6000,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B30" t="s">
         <v>161</v>
@@ -6072,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -6083,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -6094,7 +6083,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -6105,7 +6094,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C9" t="s">
         <v>122</v>
@@ -6116,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -6127,7 +6116,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -6138,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C12" t="s">
         <v>125</v>
@@ -6149,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
@@ -6160,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
@@ -6171,7 +6160,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C15" t="s">
         <v>128</v>
@@ -6182,7 +6171,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C16" t="s">
         <v>129</v>
@@ -6193,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C17" t="s">
         <v>130</v>
@@ -6204,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C18" t="s">
         <v>131</v>
@@ -6215,7 +6204,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C19" t="s">
         <v>132</v>
@@ -6226,7 +6215,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C20" t="s">
         <v>133</v>
@@ -6237,7 +6226,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C21" t="s">
         <v>134</v>
@@ -6248,7 +6237,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C22" t="s">
         <v>135</v>
@@ -6259,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C23" t="s">
         <v>136</v>
@@ -6318,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -6329,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
@@ -6340,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -6351,7 +6340,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -6362,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
@@ -6373,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
@@ -6384,7 +6373,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C12" t="s">
         <v>109</v>
@@ -6395,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C13" t="s">
         <v>110</v>
@@ -6406,7 +6395,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -6417,7 +6406,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C15" t="s">
         <v>112</v>
@@ -6428,7 +6417,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C16" t="s">
         <v>113</v>
@@ -6439,7 +6428,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
@@ -6450,7 +6439,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C18" t="s">
         <v>115</v>
@@ -6461,7 +6450,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C19" t="s">
         <v>116</v>
@@ -6472,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C20" t="s">
         <v>117</v>
@@ -6483,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C21" t="s">
         <v>118</v>
@@ -6494,7 +6483,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C22" t="s">
         <v>119</v>
@@ -6553,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -6564,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -6575,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -6586,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
@@ -6597,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C10" t="s">
         <v>82</v>
@@ -6608,7 +6597,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
@@ -6619,7 +6608,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
@@ -6630,7 +6619,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
@@ -6641,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -6652,7 +6641,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -6663,7 +6652,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
@@ -6674,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C17" t="s">
         <v>89</v>
@@ -6685,7 +6674,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C18" t="s">
         <v>90</v>
@@ -6696,7 +6685,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -6707,7 +6696,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C20" t="s">
         <v>92</v>
@@ -6718,7 +6707,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
@@ -6729,7 +6718,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
@@ -6740,7 +6729,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C23" t="s">
         <v>95</v>
@@ -6751,7 +6740,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C24" t="s">
         <v>96</v>
@@ -6762,7 +6751,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C25" t="s">
         <v>97</v>
@@ -6773,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C26" t="s">
         <v>98</v>
@@ -6784,7 +6773,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C27" t="s">
         <v>99</v>
@@ -6795,7 +6784,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C28" t="s">
         <v>100</v>
@@ -6806,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C29" t="s">
         <v>101</v>
@@ -6817,7 +6806,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C30" t="s">
         <v>102</v>
@@ -6876,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -6887,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -6898,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -6909,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -6920,7 +6909,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -6931,7 +6920,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -6942,7 +6931,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -6953,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -6964,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -6975,7 +6964,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -6986,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -6997,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -7008,7 +6997,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -7019,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
@@ -7030,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -7041,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
@@ -7052,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -7063,7 +7052,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -7074,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
@@ -7085,7 +7074,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
@@ -7096,7 +7085,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
@@ -7107,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -7118,7 +7107,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
@@ -7129,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>41</v>
@@ -7140,7 +7129,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -7155,7 +7144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B020C1E-1947-48FC-A860-2EF1B4A16AF7}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7172,7 +7163,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7193,7 +7184,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -7201,7 +7192,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -7209,7 +7200,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -7217,7 +7208,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -7225,7 +7216,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -7233,7 +7224,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7241,7 +7232,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -7249,7 +7240,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -7257,7 +7248,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -7265,7 +7256,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -7273,7 +7264,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -7281,7 +7272,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -7289,7 +7280,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -7297,7 +7288,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -7305,7 +7296,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -7313,7 +7304,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -7321,7 +7312,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
@@ -7329,7 +7320,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -7337,7 +7328,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -7345,7 +7336,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -7353,7 +7344,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -7361,7 +7352,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -7369,7 +7360,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
@@ -7377,7 +7368,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -7385,7 +7376,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -7982,7 +7973,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8427,7 +8418,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8855,9 +8846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021C946B-314F-4475-9B2D-C8EA00D9D464}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:B56"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8874,7 +8863,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>745</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -8882,7 +8871,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9363,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C48" t="s">
         <v>500</v>
@@ -9374,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C49" t="s">
         <v>501</v>
@@ -9385,7 +9374,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C50" t="s">
         <v>502</v>
@@ -9396,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C51" t="s">
         <v>503</v>
@@ -9407,7 +9396,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C52" t="s">
         <v>504</v>
@@ -9418,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C53" t="s">
         <v>405</v>
@@ -9429,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C54" t="s">
         <v>505</v>
@@ -9440,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C55" t="s">
         <v>506</v>
@@ -9451,7 +9440,7 @@
         <v>734</v>
       </c>
       <c r="B56" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C56" t="s">
         <v>507</v>
@@ -9927,7 +9916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1A2D05-85EC-41B3-A241-AAACFF57647B}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9944,7 +9935,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10848,7 +10839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C622C6D5-49E0-4741-BF5C-484CE802CC93}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -10865,7 +10856,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10886,210 +10877,210 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B6" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B7" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B8" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B9" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B11" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B12" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B13" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B14" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B15" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B16" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B17" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B18" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B19" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B20" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B21" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B22" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B23" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B24" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B25" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B26" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B27" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B28" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B29" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B30" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B31" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KayJan\test-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4512C437-9245-480C-8415-24B88B053880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EC2D51-3A38-4C9E-A96A-AB1B011CF1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="4" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" tabRatio="829" firstSheet="11" activeTab="18" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Bumble Date Edition" sheetId="16" r:id="rId16"/>
     <sheet name="Cann Edition" sheetId="17" r:id="rId17"/>
     <sheet name="Valentino Edition" sheetId="18" r:id="rId18"/>
+    <sheet name="Existential Crisis Edition" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="800">
   <si>
     <t>Card</t>
   </si>
@@ -2473,6 +2474,47 @@
 a friend who is also on their self-love journey. Revisit these questions as often
 as you need. The more we love ourselves, the easier it becomes to give and
 receive love from others. Ready?</t>
+  </si>
+  <si>
+    <t>These are just some thought-provoking questions I encountered online and also
+some daily reminder that might be useful as a timely reminder for yourself.
+Ready?</t>
+  </si>
+  <si>
+    <t>Might cause you to question everything you know</t>
+  </si>
+  <si>
+    <t>Is there someone you’re currently blaming or angry with that you could forgive if tomorrow was your last day on earth?</t>
+  </si>
+  <si>
+    <t>What are you most passionate about?</t>
+  </si>
+  <si>
+    <t>Are you holding back your skills, talents, ideas, or expression so that others won’t feel intimidated?</t>
+  </si>
+  <si>
+    <t>Are you creating your life in a way that feels joyous and inspiring?</t>
+  </si>
+  <si>
+    <t>Do you feel powerful and confident, regardless of your accomplishments or what others think of you?</t>
+  </si>
+  <si>
+    <t>Do you truly love who you authentically are?</t>
+  </si>
+  <si>
+    <t>Am I feeling passionate about my goals and is what I’m doing stimulating me?</t>
+  </si>
+  <si>
+    <t>Am I making choices from a sense of empowerment?</t>
+  </si>
+  <si>
+    <t>Can I let go of something that isn’t working?</t>
+  </si>
+  <si>
+    <t>Can I allow myself to feel fully whatever is coming up?</t>
+  </si>
+  <si>
+    <t>Reminder Remember you have full power over yourself, your reactions, and where you direct your focus.</t>
   </si>
 </sst>
 </file>
@@ -5770,7 +5812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941E7727-1D5F-48BE-8AE3-2119045C4067}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7387,6 +7429,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D2D5C-5401-4F25-8002-549E2C45E37A}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>742</v>
+      </c>
+      <c r="B7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>742</v>
+      </c>
+      <c r="B9" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B10" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>742</v>
+      </c>
+      <c r="B12" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>742</v>
+      </c>
+      <c r="B13" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>742</v>
+      </c>
+      <c r="B14" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>742</v>
+      </c>
+      <c r="B15" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>749</v>
+      </c>
+      <c r="B16" t="s">
+        <v>799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7F88C3-FB0C-4B6A-902A-298BB76C9AD4}">
   <dimension ref="A1:C52"/>
@@ -8846,7 +9021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021C946B-314F-4475-9B2D-C8EA00D9D464}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KayJan\test-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EC2D51-3A38-4C9E-A96A-AB1B011CF1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FC701-667D-4A97-AEC9-0AF9983406F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" tabRatio="829" firstSheet="11" activeTab="18" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="824">
   <si>
     <t>Card</t>
   </si>
@@ -828,9 +828,6 @@
     <t>Wild Card Sing the chorus of your favorite song of all time. Get into it!</t>
   </si>
   <si>
-    <t>Wild Card Draw your current mood. Then Compare. (Both players)</t>
-  </si>
-  <si>
     <t>Wild Card Both players write an\n embarrassing fun fact about\n yourselves. Play a game of\n rock, paper, scissors. Loser\n must reveal!</t>
   </si>
   <si>
@@ -1306,9 +1303,6 @@
   </si>
   <si>
     <t>Today I'm struggling with _________.</t>
-  </si>
-  <si>
-    <t>Who's been good for your mental health? Send them a picture of this card as a thank you.</t>
   </si>
   <si>
     <t>What title would you give this chapter of your healing journey?</t>
@@ -2515,6 +2509,84 @@
   </si>
   <si>
     <t>Reminder Remember you have full power over yourself, your reactions, and where you direct your focus.</t>
+  </si>
+  <si>
+    <t>Reminder You don't need to convince anyone of your feelings.</t>
+  </si>
+  <si>
+    <t>Reminder Forgive the person you were before you knew any better.</t>
+  </si>
+  <si>
+    <t>What's the best part of your worst relationship?</t>
+  </si>
+  <si>
+    <t>What did your last heartbreak teach you?</t>
+  </si>
+  <si>
+    <t>What is some brutally honest dating advice you've been given?</t>
+  </si>
+  <si>
+    <t>Wild Card Draw your current mood.\nThen Compare. (Both players)</t>
+  </si>
+  <si>
+    <t>Reminder The only person you need to prove yourself to is you.</t>
+  </si>
+  <si>
+    <t>Reminder You deserve healthy love.\n From yourself too.</t>
+  </si>
+  <si>
+    <t>Reminder Everyone's love looks different.</t>
+  </si>
+  <si>
+    <t>Reminder Choose what's good for your soul not just your ego.</t>
+  </si>
+  <si>
+    <t>What are you trying\n not to think about?</t>
+  </si>
+  <si>
+    <t>What's been your\n hardest goodbye?</t>
+  </si>
+  <si>
+    <t>If they texted you right now, would you respond?</t>
+  </si>
+  <si>
+    <t>Finish the sentence: One thing about me is _________.</t>
+  </si>
+  <si>
+    <t>Who's been good for your\n mental health? Send them a picture of this\n card as a thank you.</t>
+  </si>
+  <si>
+    <t>What's the best thing\n you've done for your\n mental health recently?</t>
+  </si>
+  <si>
+    <t>What's the riskiest\n text you could send\n right now?</t>
+  </si>
+  <si>
+    <t>What would most surprise your younger self about your life today?</t>
+  </si>
+  <si>
+    <t>What would you like to release today?</t>
+  </si>
+  <si>
+    <t>What qualities about yourself are you most grateful for?</t>
+  </si>
+  <si>
+    <t>What makes you feel most seen and understood?</t>
+  </si>
+  <si>
+    <t>When do you feel most aligned with your authentic self?</t>
+  </si>
+  <si>
+    <t>What creative outlets make you feel most alive?</t>
+  </si>
+  <si>
+    <t>What is one thing you'd like to commit to doing for yourself this month?</t>
+  </si>
+  <si>
+    <t>What is the biggest change you've noticed between the person you are today and the one you were at the beginning at the year?</t>
+  </si>
+  <si>
+    <t>What is worth fighting for or protecting?</t>
   </si>
 </sst>
 </file>
@@ -2874,11 +2946,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9B74D7-1525-47CD-82C9-8595EDBBFF7B}">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2895,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3981,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>258</v>
+        <v>803</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -3992,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -4003,7 +4073,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -4014,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -4025,7 +4095,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -4036,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -4047,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -4058,7 +4128,7 @@
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -4080,7 +4150,7 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -4091,7 +4161,7 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -4102,7 +4172,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -4113,7 +4183,7 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -4124,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -4135,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -4146,7 +4216,7 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -4157,7 +4227,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -4168,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -4179,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -4190,7 +4260,7 @@
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -4201,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -4212,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -4223,7 +4293,7 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -4234,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -4245,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -4256,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -4267,7 +4337,7 @@
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -4278,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -4289,7 +4359,7 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -4300,7 +4370,7 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -4311,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -4322,7 +4392,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -4333,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -4344,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -4355,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -4366,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -4377,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -4388,7 +4458,7 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -4399,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -4410,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -4421,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -4432,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4443,7 +4513,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -4465,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -4476,7 +4546,7 @@
         <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -4487,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -4498,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -4509,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -4520,7 +4590,7 @@
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -4531,7 +4601,7 @@
         <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -4542,7 +4612,7 @@
         <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -4553,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -4564,18 +4634,40 @@
         <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>310</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -4604,7 +4696,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4634,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4645,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4656,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4667,7 +4759,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4678,7 +4770,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4689,7 +4781,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4700,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4711,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4722,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4733,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4744,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4755,7 +4847,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4766,7 +4858,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4777,7 +4869,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4788,7 +4880,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4799,7 +4891,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4810,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4821,7 +4913,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4832,7 +4924,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4843,7 +4935,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4854,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4865,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4876,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4887,7 +4979,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4898,7 +4990,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4909,7 +5001,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4920,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4931,7 +5023,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4942,7 +5034,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4953,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4964,7 +5056,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4975,7 +5067,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4986,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4997,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -5008,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -5019,7 +5111,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -5030,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -5041,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -5052,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -5063,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5074,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -5085,7 +5177,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -5096,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -5107,7 +5199,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -5118,7 +5210,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -5129,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -5140,7 +5232,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5151,7 +5243,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -5162,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -5173,7 +5265,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -5184,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -5195,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -5206,7 +5298,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -5217,7 +5309,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -5229,9 +5321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1E74C7-997C-4C85-8502-804A6B1DB83E}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5248,7 +5338,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5275,10 +5365,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5286,10 +5376,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5297,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5308,10 +5398,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5319,10 +5409,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5330,10 +5420,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5341,10 +5431,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5352,10 +5442,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C13" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5363,10 +5453,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5374,10 +5464,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C15" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5385,10 +5475,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C16" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5396,10 +5486,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5407,10 +5497,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5418,10 +5508,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C19" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5429,10 +5519,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C20" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5440,10 +5530,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5451,10 +5541,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C22" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5462,10 +5552,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5473,10 +5563,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5484,10 +5574,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C25" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5495,10 +5585,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C26" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5506,10 +5596,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C27" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5517,10 +5607,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C28" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5528,10 +5618,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C29" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5539,10 +5629,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C30" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -5572,7 +5662,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5602,7 +5692,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5613,7 +5703,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5624,7 +5714,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5635,7 +5725,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5646,7 +5736,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5657,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5668,7 +5758,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5679,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5690,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5701,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5712,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5723,7 +5813,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5734,7 +5824,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5745,7 +5835,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5756,7 +5846,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5767,7 +5857,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5778,7 +5868,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5789,18 +5879,18 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -5812,7 +5902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941E7727-1D5F-48BE-8AE3-2119045C4067}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5829,7 +5919,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5850,7 +5940,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
@@ -5858,7 +5948,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
@@ -5866,7 +5956,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B8" t="s">
         <v>139</v>
@@ -5874,7 +5964,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B9" t="s">
         <v>140</v>
@@ -5882,7 +5972,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B10" t="s">
         <v>141</v>
@@ -5890,7 +5980,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B11" t="s">
         <v>142</v>
@@ -5898,7 +5988,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
@@ -5906,7 +5996,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B13" t="s">
         <v>144</v>
@@ -5914,7 +6004,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B14" t="s">
         <v>145</v>
@@ -5922,7 +6012,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B15" t="s">
         <v>146</v>
@@ -5930,7 +6020,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B16" t="s">
         <v>147</v>
@@ -5938,7 +6028,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B17" t="s">
         <v>148</v>
@@ -5946,7 +6036,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B18" t="s">
         <v>149</v>
@@ -5954,7 +6044,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B19" t="s">
         <v>150</v>
@@ -5962,7 +6052,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B20" t="s">
         <v>151</v>
@@ -5970,7 +6060,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B21" t="s">
         <v>152</v>
@@ -5978,7 +6068,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B22" t="s">
         <v>153</v>
@@ -5986,7 +6076,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B23" t="s">
         <v>154</v>
@@ -5994,7 +6084,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B24" t="s">
         <v>155</v>
@@ -6002,7 +6092,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B25" t="s">
         <v>156</v>
@@ -6010,7 +6100,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B26" t="s">
         <v>157</v>
@@ -6018,7 +6108,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B27" t="s">
         <v>158</v>
@@ -6026,7 +6116,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B28" t="s">
         <v>159</v>
@@ -6034,7 +6124,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B29" t="s">
         <v>160</v>
@@ -6042,7 +6132,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B30" t="s">
         <v>161</v>
@@ -6057,9 +6147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BB1692-6F6B-4FFF-B841-EEF12529B92E}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6076,7 +6164,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6103,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -6114,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -6125,7 +6213,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -6136,7 +6224,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C9" t="s">
         <v>122</v>
@@ -6147,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -6158,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -6169,7 +6257,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C12" t="s">
         <v>125</v>
@@ -6180,7 +6268,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
@@ -6191,7 +6279,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
@@ -6202,7 +6290,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C15" t="s">
         <v>128</v>
@@ -6213,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C16" t="s">
         <v>129</v>
@@ -6224,7 +6312,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C17" t="s">
         <v>130</v>
@@ -6235,7 +6323,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C18" t="s">
         <v>131</v>
@@ -6246,7 +6334,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C19" t="s">
         <v>132</v>
@@ -6257,7 +6345,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C20" t="s">
         <v>133</v>
@@ -6268,7 +6356,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C21" t="s">
         <v>134</v>
@@ -6279,7 +6367,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C22" t="s">
         <v>135</v>
@@ -6290,7 +6378,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C23" t="s">
         <v>136</v>
@@ -6322,7 +6410,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6349,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
@@ -6360,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
@@ -6371,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -6382,7 +6470,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -6393,7 +6481,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
@@ -6404,7 +6492,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
@@ -6415,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C12" t="s">
         <v>109</v>
@@ -6426,7 +6514,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C13" t="s">
         <v>110</v>
@@ -6437,7 +6525,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -6448,7 +6536,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C15" t="s">
         <v>112</v>
@@ -6459,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C16" t="s">
         <v>113</v>
@@ -6470,7 +6558,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
@@ -6481,7 +6569,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C18" t="s">
         <v>115</v>
@@ -6492,7 +6580,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C19" t="s">
         <v>116</v>
@@ -6503,7 +6591,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C20" t="s">
         <v>117</v>
@@ -6514,7 +6602,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C21" t="s">
         <v>118</v>
@@ -6525,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C22" t="s">
         <v>119</v>
@@ -6557,7 +6645,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6584,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -6595,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -6606,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -6617,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
@@ -6628,7 +6716,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C10" t="s">
         <v>82</v>
@@ -6639,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
@@ -6650,7 +6738,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
@@ -6661,7 +6749,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C13" t="s">
         <v>85</v>
@@ -6672,7 +6760,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
@@ -6683,7 +6771,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
@@ -6694,7 +6782,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
@@ -6705,7 +6793,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C17" t="s">
         <v>89</v>
@@ -6716,7 +6804,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C18" t="s">
         <v>90</v>
@@ -6727,7 +6815,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -6738,7 +6826,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C20" t="s">
         <v>92</v>
@@ -6749,7 +6837,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C21" t="s">
         <v>93</v>
@@ -6760,7 +6848,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C22" t="s">
         <v>94</v>
@@ -6771,7 +6859,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C23" t="s">
         <v>95</v>
@@ -6782,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C24" t="s">
         <v>96</v>
@@ -6793,7 +6881,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C25" t="s">
         <v>97</v>
@@ -6804,7 +6892,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C26" t="s">
         <v>98</v>
@@ -6815,7 +6903,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C27" t="s">
         <v>99</v>
@@ -6826,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C28" t="s">
         <v>100</v>
@@ -6837,7 +6925,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C29" t="s">
         <v>101</v>
@@ -6848,7 +6936,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C30" t="s">
         <v>102</v>
@@ -6880,7 +6968,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6907,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -6918,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -6929,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -6940,7 +7028,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -6951,7 +7039,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -6962,7 +7050,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -6973,7 +7061,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -6984,7 +7072,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -6995,7 +7083,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -7006,7 +7094,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -7017,7 +7105,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -7028,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -7039,7 +7127,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -7050,7 +7138,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
@@ -7061,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -7072,7 +7160,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
@@ -7083,7 +7171,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -7094,7 +7182,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -7105,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
@@ -7116,7 +7204,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
@@ -7127,7 +7215,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
@@ -7138,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -7149,7 +7237,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
@@ -7160,7 +7248,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>41</v>
@@ -7171,7 +7259,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -7186,9 +7274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B020C1E-1947-48FC-A860-2EF1B4A16AF7}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7205,7 +7291,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7226,7 +7312,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -7234,7 +7320,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -7242,7 +7328,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -7250,7 +7336,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -7258,7 +7344,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -7266,7 +7352,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7274,7 +7360,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -7282,7 +7368,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -7290,7 +7376,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -7298,7 +7384,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -7306,7 +7392,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
@@ -7314,7 +7400,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -7322,7 +7408,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -7330,7 +7416,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -7338,7 +7424,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -7346,7 +7432,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -7354,7 +7440,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B22" t="s">
         <v>69</v>
@@ -7362,7 +7448,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -7370,7 +7456,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -7378,7 +7464,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -7386,7 +7472,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -7394,7 +7480,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -7402,7 +7488,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
@@ -7410,7 +7496,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -7418,7 +7504,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -7431,9 +7517,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D2D5C-5401-4F25-8002-549E2C45E37A}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7450,111 +7536,234 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>788</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B7" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B8" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B9" t="s">
-        <v>792</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B11" t="s">
-        <v>794</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B12" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B13" t="s">
-        <v>796</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B14" t="s">
-        <v>797</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B15" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B16" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>740</v>
+      </c>
+      <c r="B17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>740</v>
+      </c>
+      <c r="B18" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B19" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>740</v>
+      </c>
+      <c r="B21" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>740</v>
+      </c>
+      <c r="B22" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>740</v>
+      </c>
+      <c r="B23" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>740</v>
+      </c>
+      <c r="B24" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>747</v>
+      </c>
+      <c r="B25" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>747</v>
+      </c>
+      <c r="B26" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>747</v>
+      </c>
+      <c r="B27" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>747</v>
+      </c>
+      <c r="B28" t="s">
         <v>799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>747</v>
+      </c>
+      <c r="B29" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>747</v>
+      </c>
+      <c r="B30" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>747</v>
+      </c>
+      <c r="B31" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -7564,7 +7773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7F88C3-FB0C-4B6A-902A-298BB76C9AD4}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7583,7 +7792,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7613,7 +7822,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7624,7 +7833,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7635,7 +7844,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7646,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7657,7 +7866,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7668,7 +7877,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7679,7 +7888,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7690,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7701,7 +7910,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7712,7 +7921,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7723,7 +7932,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7734,7 +7943,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7745,7 +7954,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7756,7 +7965,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7767,7 +7976,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7778,7 +7987,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7789,7 +7998,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7800,7 +8009,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7811,7 +8020,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -7822,7 +8031,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7833,7 +8042,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -7844,7 +8053,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -7855,7 +8064,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -7866,7 +8075,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -7877,7 +8086,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -7888,7 +8097,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -7899,7 +8108,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -7910,7 +8119,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -7921,7 +8130,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -7932,7 +8141,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -7943,7 +8152,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -7954,7 +8163,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -7965,7 +8174,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -7976,7 +8185,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -7987,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -7998,7 +8207,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -8009,7 +8218,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -8020,7 +8229,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -8031,7 +8240,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -8042,7 +8251,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -8053,7 +8262,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -8064,7 +8273,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -8075,7 +8284,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -8086,7 +8295,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -8097,7 +8306,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -8108,18 +8317,51 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -8129,7 +8371,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1B56EE-3E41-4700-94E1-99053861750B}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8148,7 +8390,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8172,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -8180,7 +8422,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8188,7 +8430,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8196,7 +8438,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -8204,7 +8446,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -8212,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -8220,7 +8462,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8228,7 +8470,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8236,7 +8478,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8244,7 +8486,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8252,7 +8494,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8260,7 +8502,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8268,7 +8510,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8276,7 +8518,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -8284,7 +8526,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8292,7 +8534,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -8300,7 +8542,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8308,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -8316,7 +8558,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -8324,7 +8566,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -8332,7 +8574,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -8340,7 +8582,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -8348,7 +8590,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -8356,7 +8598,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -8364,7 +8606,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -8372,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -8380,7 +8622,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -8388,7 +8630,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -8396,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -8404,7 +8646,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -8412,7 +8654,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -8420,7 +8662,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -8428,7 +8670,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -8436,7 +8678,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -8444,7 +8686,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -8452,7 +8694,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -8460,7 +8702,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -8468,7 +8710,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -8476,7 +8718,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -8484,7 +8726,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -8492,7 +8734,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -8500,7 +8742,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -8508,7 +8750,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -8516,7 +8758,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -8524,7 +8766,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -8532,7 +8774,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -8540,7 +8782,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -8548,7 +8790,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -8556,7 +8798,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -8564,7 +8806,15 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>407</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -8574,7 +8824,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB304941-4562-46A1-BF92-E2BAD3F0C635}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8593,7 +8843,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8617,7 +8867,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -8625,7 +8875,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8633,7 +8883,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8641,7 +8891,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -8649,7 +8899,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -8657,7 +8907,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -8665,7 +8915,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8673,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8681,7 +8931,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8689,7 +8939,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8697,7 +8947,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8705,7 +8955,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>419</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8713,7 +8963,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8721,7 +8971,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -8729,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8737,7 +8987,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -8745,7 +8995,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8753,7 +9003,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -8761,7 +9011,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -8769,7 +9019,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -8777,7 +9027,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -8785,7 +9035,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -8793,7 +9043,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -8801,7 +9051,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -8809,7 +9059,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -8817,7 +9067,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -8825,7 +9075,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -8833,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -8841,7 +9091,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -8849,7 +9099,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -8857,7 +9107,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -8865,7 +9115,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -8873,7 +9123,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -8881,15 +9131,15 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -8897,7 +9147,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -8905,7 +9155,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -8913,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -8921,7 +9171,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -8929,7 +9179,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -8937,7 +9187,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -8945,7 +9195,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -8953,7 +9203,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -8961,7 +9211,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -8969,7 +9219,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -8977,7 +9227,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -8985,7 +9235,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -8993,7 +9243,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -9001,7 +9251,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -9009,7 +9259,15 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>457</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -9021,9 +9279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021C946B-314F-4475-9B2D-C8EA00D9D464}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9040,7 +9296,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9048,7 +9304,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9070,7 +9326,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9081,7 +9337,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9092,7 +9348,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -9103,7 +9359,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -9114,7 +9370,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -9125,7 +9381,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -9136,7 +9392,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -9147,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -9158,7 +9414,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -9169,7 +9425,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -9180,7 +9436,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -9191,7 +9447,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -9202,7 +9458,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -9213,7 +9469,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -9224,7 +9480,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -9235,7 +9491,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -9246,7 +9502,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -9257,7 +9513,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -9268,7 +9524,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -9279,7 +9535,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -9290,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -9301,7 +9557,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -9312,7 +9568,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -9323,7 +9579,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -9334,7 +9590,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -9345,7 +9601,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -9356,7 +9612,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -9367,7 +9623,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -9378,7 +9634,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -9389,7 +9645,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -9400,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -9411,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -9422,7 +9678,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -9433,7 +9689,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -9444,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -9455,7 +9711,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -9466,7 +9722,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -9477,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -9488,7 +9744,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -9499,7 +9755,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -9510,7 +9766,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -9521,7 +9777,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -9529,10 +9785,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C48" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -9540,10 +9796,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C49" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -9551,10 +9807,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C50" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -9562,10 +9818,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C51" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -9573,10 +9829,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C52" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -9584,10 +9840,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -9595,10 +9851,10 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C54" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -9606,21 +9862,21 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C55" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B56" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C56" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -9630,7 +9886,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44F3B7C-A9E9-49E8-B34F-0192F8DE16BF}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9649,7 +9905,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9673,7 +9929,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9681,7 +9937,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9689,7 +9945,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9697,7 +9953,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9705,7 +9961,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9713,7 +9969,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9721,7 +9977,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9729,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9737,7 +9993,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9745,7 +10001,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9753,7 +10009,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9761,7 +10017,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9769,7 +10025,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9777,7 +10033,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9785,7 +10041,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9793,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9801,7 +10057,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9809,7 +10065,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9817,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9825,7 +10081,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9833,7 +10089,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9841,7 +10097,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9849,7 +10105,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9857,7 +10113,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9865,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9873,7 +10129,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9881,7 +10137,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9889,7 +10145,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -9897,7 +10153,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9905,7 +10161,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9913,7 +10169,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -9921,7 +10177,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -9929,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -9937,7 +10193,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -9945,7 +10201,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -9953,7 +10209,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -9961,7 +10217,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -9969,7 +10225,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -9977,7 +10233,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -9985,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -9993,7 +10249,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -10001,7 +10257,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -10009,7 +10265,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -10017,7 +10273,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -10025,7 +10281,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -10033,7 +10289,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -10041,7 +10297,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -10049,7 +10305,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -10057,7 +10313,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10065,7 +10321,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -10073,7 +10329,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -10081,7 +10337,15 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>559</v>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -10091,11 +10355,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1A2D05-85EC-41B3-A241-AAACFF57647B}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -10112,7 +10374,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10142,7 +10404,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -10153,7 +10415,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10164,7 +10426,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -10175,7 +10437,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -10186,7 +10448,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -10197,7 +10459,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -10208,7 +10470,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -10219,7 +10481,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -10230,7 +10492,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -10241,7 +10503,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -10252,7 +10514,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -10263,7 +10525,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -10274,7 +10536,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -10285,7 +10547,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -10296,7 +10558,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -10307,7 +10569,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -10318,7 +10580,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -10329,7 +10591,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -10340,7 +10602,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -10351,7 +10613,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -10362,7 +10624,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -10373,7 +10635,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -10384,7 +10646,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -10395,7 +10657,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -10406,7 +10668,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -10417,7 +10679,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -10428,7 +10690,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -10439,7 +10701,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -10450,7 +10712,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -10461,7 +10723,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10472,7 +10734,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -10483,7 +10745,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -10494,7 +10756,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -10505,7 +10767,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -10516,7 +10778,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -10527,7 +10789,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -10538,7 +10800,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -10549,7 +10811,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -10560,7 +10822,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -10571,7 +10833,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -10582,7 +10844,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -10593,7 +10855,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -10604,7 +10866,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -10615,7 +10877,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -10626,7 +10888,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -10637,7 +10899,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -10648,7 +10910,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -10659,7 +10921,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -10670,7 +10932,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -10681,7 +10943,18 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>707</v>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -10710,7 +10983,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10740,7 +11013,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -10751,7 +11024,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10762,7 +11035,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -10773,7 +11046,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -10784,7 +11057,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -10795,7 +11068,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -10806,7 +11079,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -10817,7 +11090,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -10828,7 +11101,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -10839,7 +11112,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -10850,7 +11123,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -10861,7 +11134,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -10872,7 +11145,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -10883,7 +11156,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -10894,7 +11167,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -10905,7 +11178,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -10916,7 +11189,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -10927,7 +11200,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -10938,7 +11211,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -10949,7 +11222,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -10960,7 +11233,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -10971,7 +11244,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -10982,7 +11255,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -10993,7 +11266,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -11004,7 +11277,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -11033,7 +11306,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -11054,210 +11327,210 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B9" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B11" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B12" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B13" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B14" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B16" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B17" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B18" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B21" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B22" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B23" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B24" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B25" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B26" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B27" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B28" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B29" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B30" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B31" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KayJan\test-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FC701-667D-4A97-AEC9-0AF9983406F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A38CE6-241F-4EF5-A0B5-E9B41717E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" firstSheet="11" activeTab="18" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="828">
   <si>
     <t>Card</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Own It Expansion Pack</t>
   </si>
   <si>
-    <t>There's always another layer to anyone you think you know</t>
-  </si>
-  <si>
     <t>Online</t>
   </si>
   <si>
@@ -774,9 +771,6 @@
     <t>What would your younger\n self not believe about\n your life today?</t>
   </si>
   <si>
-    <t>What is something you wouldn't want to change about yourself?</t>
-  </si>
-  <si>
     <t>What title would you give this\n chapter in your life?</t>
   </si>
   <si>
@@ -789,9 +783,6 @@
     <t>When you're asked how\n are you, how often do you\n answer truthfully?</t>
   </si>
   <si>
-    <t>Finish the sentences:\n strangers would describe\n me as _________. Only I know\n that I am _________.</t>
-  </si>
-  <si>
     <t>What question are you trying to\n answer most in your life right\n now?</t>
   </si>
   <si>
@@ -804,9 +795,6 @@
     <t>Wild Card Ask a question you'd\n be too afraid to ask.\n Something you wouldn't\n dare to ask.</t>
   </si>
   <si>
-    <t>Wild Card Call someone you admire and tell them why you appreciate them! (Put on speaker phone)</t>
-  </si>
-  <si>
     <t>Wild Card Admit something.</t>
   </si>
   <si>
@@ -820,9 +808,6 @@
   </si>
   <si>
     <t>Wild Card Show the first photo in your camera roll. Explain.</t>
-  </si>
-  <si>
-    <t>Wild Card Create a secret handshake.</t>
   </si>
   <si>
     <t>Wild Card Sing the chorus of your favorite song of all time. Get into it!</t>
@@ -2526,9 +2511,6 @@
     <t>What is some brutally honest dating advice you've been given?</t>
   </si>
   <si>
-    <t>Wild Card Draw your current mood.\nThen Compare. (Both players)</t>
-  </si>
-  <si>
     <t>Reminder The only person you need to prove yourself to is you.</t>
   </si>
   <si>
@@ -2587,6 +2569,43 @@
   </si>
   <si>
     <t>What is worth fighting for or protecting?</t>
+  </si>
+  <si>
+    <t>Self-awareness is a superpower that we can all cultivate. It starts with asking
+ourselves the right questions and answering honestly. Especially when the
+answers are hard to admit. The Self-Reflection kit was made with the intention
+of empowering us to get to know ourselves on a deeper level. Ready?</t>
+  </si>
+  <si>
+    <t>There's always another layer to anyone you (think you) know</t>
+  </si>
+  <si>
+    <t>The intention behind this set of questions and wildcards is to dig deeper with
+the people in our lives that we think we know best.</t>
+  </si>
+  <si>
+    <t>Despite being physically apart, our emotional connections don't need to suffer.</t>
+  </si>
+  <si>
+    <t>Finish the sentences:\n Strangers would describe\n me as _________. Only I know\n that I am _________.</t>
+  </si>
+  <si>
+    <t>What is something you\n wouldn't want to change\n about yourself?</t>
+  </si>
+  <si>
+    <t>Wild Card Create a secret handshake!</t>
+  </si>
+  <si>
+    <t>Wild Card Draw your current mood.\n Then Compare. (Both players)</t>
+  </si>
+  <si>
+    <t>Wild Card Call someone you\n admire and tell them why you\n appreciate them! (Put on\n speaker phone)</t>
+  </si>
+  <si>
+    <t>Night in just got more fun. WNRS is a social game to be played amongst friends.
+Use thought-provoking cards to find new dimensions in existing friendships as
+well as forge new ones. Invite over some friends, put the Cann on ice, and play
+the game that makes you *feel things*.</t>
   </si>
 </sst>
 </file>
@@ -2948,7 +2967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9B74D7-1525-47CD-82C9-8595EDBBFF7B}">
   <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2965,7 +2984,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2995,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3006,7 +3025,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3017,7 +3036,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3028,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3039,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3050,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3061,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3072,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3083,7 +3102,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3094,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3105,7 +3124,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3116,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3127,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3138,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3149,7 +3168,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3160,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3171,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3182,7 +3201,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3193,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3204,7 +3223,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3215,7 +3234,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3226,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3237,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3248,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3259,7 +3278,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3270,7 +3289,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3281,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -3292,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -3303,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -3314,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -3325,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -3336,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -3347,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -3358,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -3369,7 +3388,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -3380,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -3391,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -3402,7 +3421,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -3413,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -3424,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -3435,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -3446,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -3457,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -3468,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -3479,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -3490,7 +3509,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -3501,7 +3520,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3512,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -3523,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -3534,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -3545,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -3556,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -3567,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -3578,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -3589,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -3600,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -3611,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -3622,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -3633,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -3644,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -3655,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -3666,7 +3685,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -3677,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -3688,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -3699,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -3710,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -3721,7 +3740,7 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -3732,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -3743,7 +3762,7 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -3754,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -3765,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -3776,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -3787,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -3798,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -3809,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3820,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3831,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -3842,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -3853,7 +3872,7 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>240</v>
+        <v>823</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -3864,7 +3883,7 @@
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -3875,7 +3894,7 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -3886,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -3897,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -3908,7 +3927,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>245</v>
+        <v>822</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -3919,7 +3938,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -3930,7 +3949,7 @@
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -3941,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -3952,7 +3971,7 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -3963,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>250</v>
+        <v>826</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -3974,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -3985,7 +4004,7 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -3996,7 +4015,7 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -4007,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -4018,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -4029,7 +4048,7 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>256</v>
+        <v>824</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -4040,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -4051,7 +4070,7 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -4062,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -4073,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -4084,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -4095,7 +4114,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -4106,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -4117,7 +4136,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -4128,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -4139,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -4150,7 +4169,7 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -4161,7 +4180,7 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -4172,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -4183,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -4194,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -4205,7 +4224,7 @@
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -4216,7 +4235,7 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -4227,7 +4246,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -4238,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -4249,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -4260,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -4271,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -4282,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -4293,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -4304,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -4315,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -4326,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -4337,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -4348,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -4359,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -4370,7 +4389,7 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -4381,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -4392,7 +4411,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -4403,7 +4422,7 @@
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -4414,7 +4433,7 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -4425,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -4436,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -4447,7 +4466,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -4458,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -4469,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -4480,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -4491,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -4502,7 +4521,7 @@
         <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4513,7 +4532,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -4524,7 +4543,7 @@
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -4535,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -4546,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -4557,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -4568,7 +4587,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -4579,7 +4598,7 @@
         <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -4590,7 +4609,7 @@
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -4601,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -4612,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -4623,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -4634,18 +4653,18 @@
         <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -4656,7 +4675,7 @@
         <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -4667,7 +4686,7 @@
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -4696,7 +4715,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4726,7 +4745,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4737,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4748,7 +4767,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4759,7 +4778,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4770,7 +4789,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4781,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4792,7 +4811,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4803,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4814,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4825,7 +4844,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4836,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4847,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4858,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4869,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4880,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4891,7 +4910,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4902,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -4913,7 +4932,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -4924,7 +4943,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -4935,7 +4954,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -4946,7 +4965,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -4957,7 +4976,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -4968,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4979,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -4990,7 +5009,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -5001,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5012,7 +5031,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -5023,7 +5042,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -5034,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -5045,7 +5064,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -5056,7 +5075,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -5067,7 +5086,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -5078,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -5089,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -5100,7 +5119,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -5111,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -5122,7 +5141,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -5133,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -5144,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -5155,7 +5174,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5166,7 +5185,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -5177,7 +5196,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -5188,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -5199,7 +5218,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -5210,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -5221,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -5232,7 +5251,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -5243,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -5254,7 +5273,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -5265,7 +5284,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -5276,7 +5295,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -5287,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -5298,7 +5317,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -5309,7 +5328,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +5349,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5338,7 +5357,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5346,7 +5365,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5365,10 +5384,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5376,10 +5395,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5387,10 +5406,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C8" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5398,10 +5417,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5409,10 +5428,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C10" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5420,10 +5439,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5431,10 +5450,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C12" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5442,10 +5461,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C13" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5453,10 +5472,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C14" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5464,10 +5483,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C15" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5475,10 +5494,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C16" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5486,10 +5505,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C17" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5497,10 +5516,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5508,10 +5527,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C19" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5519,10 +5538,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C20" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5530,10 +5549,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C21" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5541,10 +5560,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C22" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5552,10 +5571,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C23" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5563,10 +5582,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C24" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5574,10 +5593,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C25" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5585,10 +5604,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C26" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5596,10 +5615,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C27" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5607,10 +5626,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C28" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5618,10 +5637,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C29" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5629,10 +5648,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C30" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -5654,7 +5673,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5662,7 +5681,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>731</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5670,7 +5689,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5692,7 +5711,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5703,7 +5722,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5714,7 +5733,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5725,7 +5744,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5736,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5747,7 +5766,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5758,7 +5777,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5769,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5780,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5791,7 +5810,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5802,7 +5821,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5813,7 +5832,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5824,7 +5843,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5835,7 +5854,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5846,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5857,7 +5876,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -5868,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5879,18 +5898,18 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -5911,7 +5930,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5919,7 +5938,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5927,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5940,202 +5959,202 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6156,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6164,7 +6183,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6172,7 +6191,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6191,10 +6210,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6202,10 +6221,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6213,10 +6232,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6224,10 +6243,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6235,10 +6254,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6246,10 +6265,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6257,10 +6276,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6268,10 +6287,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6279,10 +6298,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6290,10 +6309,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6301,10 +6320,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6312,10 +6331,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6323,10 +6342,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6334,10 +6353,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6345,10 +6364,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6356,10 +6375,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6367,10 +6386,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6378,10 +6397,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6402,7 +6421,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6410,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6418,7 +6437,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6437,10 +6456,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6448,10 +6467,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6459,10 +6478,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6470,10 +6489,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6481,10 +6500,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6492,10 +6511,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6503,10 +6522,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6514,10 +6533,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6525,10 +6544,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6536,10 +6555,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6547,10 +6566,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6558,10 +6577,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6569,10 +6588,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6580,10 +6599,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6591,10 +6610,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6602,10 +6621,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6613,10 +6632,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -6637,7 +6656,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6645,7 +6664,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6653,7 +6672,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6672,10 +6691,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6683,10 +6702,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6694,10 +6713,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6705,10 +6724,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6716,10 +6735,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6727,10 +6746,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6738,10 +6757,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6749,10 +6768,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6760,10 +6779,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -6771,10 +6790,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -6782,10 +6801,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -6793,10 +6812,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -6804,10 +6823,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -6815,10 +6834,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -6826,10 +6845,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -6837,10 +6856,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -6848,10 +6867,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6859,10 +6878,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -6870,10 +6889,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -6881,10 +6900,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -6892,10 +6911,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -6903,10 +6922,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -6914,10 +6933,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -6925,10 +6944,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -6936,10 +6955,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6960,7 +6979,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6968,7 +6987,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>731</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6976,7 +6995,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6995,10 +7014,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7006,10 +7025,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7017,10 +7036,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7028,10 +7047,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7039,10 +7058,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7050,10 +7069,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7061,10 +7080,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7072,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7083,10 +7102,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7094,10 +7113,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7105,10 +7124,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7116,10 +7135,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7127,10 +7146,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7138,10 +7157,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7149,10 +7168,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7160,10 +7179,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7171,10 +7190,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7182,10 +7201,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7193,10 +7212,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -7204,10 +7223,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7215,10 +7234,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -7226,10 +7245,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -7237,10 +7256,10 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -7248,10 +7267,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -7259,10 +7278,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -7283,7 +7302,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7291,7 +7310,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7299,7 +7318,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7312,202 +7331,202 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7517,9 +7536,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D2D5C-5401-4F25-8002-549E2C45E37A}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7536,7 +7555,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7544,7 +7563,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7560,210 +7579,218 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B6" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B7" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B8" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B9" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B10" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B11" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B12" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B13" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B14" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B15" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B16" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B17" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B18" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B19" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B20" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B21" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B22" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B23" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B24" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="B25" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B26" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B27" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B28" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B29" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B30" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B31" t="s">
-        <v>807</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>742</v>
+      </c>
+      <c r="B32" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -7792,7 +7819,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7822,7 +7849,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7833,7 +7860,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7844,7 +7871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7855,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7866,7 +7893,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7877,7 +7904,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7888,7 +7915,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7899,7 +7926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7910,7 +7937,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7921,7 +7948,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7932,7 +7959,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7943,7 +7970,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7954,7 +7981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7965,7 +7992,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7976,7 +8003,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7987,7 +8014,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7998,7 +8025,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -8009,7 +8036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -8020,7 +8047,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -8031,7 +8058,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -8042,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -8053,7 +8080,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -8064,7 +8091,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -8075,7 +8102,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -8086,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -8097,7 +8124,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8108,7 +8135,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -8119,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -8130,7 +8157,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -8141,7 +8168,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8152,7 +8179,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -8163,7 +8190,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -8174,7 +8201,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -8185,7 +8212,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -8196,7 +8223,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -8207,7 +8234,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -8218,7 +8245,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -8229,7 +8256,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -8240,7 +8267,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -8251,7 +8278,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -8262,7 +8289,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -8273,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -8284,7 +8311,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -8295,7 +8322,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -8306,7 +8333,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -8317,18 +8344,18 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -8339,7 +8366,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -8350,7 +8377,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -8361,7 +8388,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -8390,7 +8417,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8414,7 +8441,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -8422,7 +8449,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8430,7 +8457,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8438,7 +8465,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -8446,7 +8473,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -8454,7 +8481,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -8462,7 +8489,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8470,7 +8497,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8478,7 +8505,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8486,7 +8513,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8494,7 +8521,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8502,7 +8529,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8510,7 +8537,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8518,7 +8545,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -8526,7 +8553,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8534,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -8542,7 +8569,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -8550,7 +8577,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -8558,7 +8585,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -8566,7 +8593,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -8574,7 +8601,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -8582,7 +8609,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -8590,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -8598,7 +8625,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -8606,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -8614,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -8622,7 +8649,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -8630,7 +8657,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -8638,7 +8665,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -8646,7 +8673,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -8654,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -8662,7 +8689,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -8670,7 +8697,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -8678,7 +8705,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -8686,7 +8713,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -8694,7 +8721,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -8702,7 +8729,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -8710,7 +8737,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -8718,7 +8745,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -8726,7 +8753,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -8734,7 +8761,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -8742,7 +8769,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -8750,7 +8777,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -8758,7 +8785,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -8766,7 +8793,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -8774,7 +8801,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -8782,7 +8809,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -8790,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -8798,7 +8825,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -8806,7 +8833,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -8814,7 +8841,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -8843,7 +8870,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8867,7 +8894,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -8875,7 +8902,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8883,7 +8910,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8891,7 +8918,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -8899,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -8907,7 +8934,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -8915,7 +8942,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -8923,7 +8950,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -8931,7 +8958,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8939,7 +8966,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8947,7 +8974,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -8955,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -8963,7 +8990,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8971,7 +8998,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -8979,7 +9006,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -8987,7 +9014,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -8995,7 +9022,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9003,7 +9030,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9011,7 +9038,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9019,7 +9046,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9027,7 +9054,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9035,7 +9062,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9043,7 +9070,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9051,7 +9078,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9059,7 +9086,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9067,7 +9094,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9075,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9083,7 +9110,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -9091,7 +9118,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9099,7 +9126,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9107,7 +9134,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -9115,7 +9142,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -9123,7 +9150,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -9131,7 +9158,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -9139,7 +9166,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -9147,7 +9174,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -9155,7 +9182,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -9163,7 +9190,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -9171,7 +9198,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -9179,7 +9206,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -9187,7 +9214,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -9195,7 +9222,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -9203,7 +9230,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -9211,7 +9238,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -9219,7 +9246,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -9227,7 +9254,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -9235,7 +9262,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -9243,7 +9270,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -9251,7 +9278,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -9259,7 +9286,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -9267,7 +9294,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -9296,7 +9323,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9304,7 +9331,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9326,7 +9353,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9337,7 +9364,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9348,7 +9375,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -9359,7 +9386,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -9370,7 +9397,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -9381,7 +9408,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -9392,7 +9419,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -9403,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -9414,7 +9441,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -9425,7 +9452,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -9436,7 +9463,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -9447,7 +9474,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -9458,7 +9485,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -9469,7 +9496,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -9480,7 +9507,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -9491,7 +9518,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -9502,7 +9529,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -9513,7 +9540,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -9524,7 +9551,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -9535,7 +9562,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -9546,7 +9573,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -9557,7 +9584,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -9568,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -9579,7 +9606,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -9590,7 +9617,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -9601,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -9612,7 +9639,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -9623,7 +9650,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -9634,7 +9661,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -9645,7 +9672,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -9656,7 +9683,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -9667,7 +9694,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -9678,7 +9705,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -9689,7 +9716,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -9700,7 +9727,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -9711,7 +9738,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -9722,7 +9749,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -9733,7 +9760,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -9744,7 +9771,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -9755,7 +9782,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -9766,7 +9793,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -9777,7 +9804,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -9785,10 +9812,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C48" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -9796,10 +9823,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C49" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -9807,10 +9834,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C50" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -9818,10 +9845,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C51" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -9829,10 +9856,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C52" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -9840,10 +9867,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C53" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -9851,10 +9878,10 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C54" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -9862,21 +9889,21 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C55" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>727</v>
+      </c>
+      <c r="B56" t="s">
         <v>732</v>
       </c>
-      <c r="B56" t="s">
-        <v>737</v>
-      </c>
       <c r="C56" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -9886,7 +9913,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44F3B7C-A9E9-49E8-B34F-0192F8DE16BF}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9904,8 +9931,8 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>731</v>
+      <c r="B2" s="1" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9929,7 +9956,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9937,7 +9964,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9945,7 +9972,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9953,7 +9980,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9961,7 +9988,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9969,7 +9996,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9977,7 +10004,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9985,7 +10012,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9993,7 +10020,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -10001,7 +10028,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -10009,7 +10036,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -10017,7 +10044,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -10025,7 +10052,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -10033,7 +10060,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -10041,7 +10068,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -10049,7 +10076,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -10057,7 +10084,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -10065,7 +10092,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -10073,7 +10100,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -10081,7 +10108,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -10089,7 +10116,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -10097,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -10105,7 +10132,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -10113,7 +10140,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -10121,7 +10148,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -10129,7 +10156,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -10137,7 +10164,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -10145,7 +10172,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -10153,7 +10180,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -10161,7 +10188,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -10169,7 +10196,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -10177,7 +10204,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -10185,7 +10212,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -10193,7 +10220,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10201,7 +10228,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -10209,7 +10236,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -10217,7 +10244,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10225,7 +10252,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -10233,7 +10260,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10241,7 +10268,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -10249,7 +10276,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -10257,7 +10284,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -10265,7 +10292,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -10273,7 +10300,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -10281,7 +10308,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -10289,7 +10316,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -10297,7 +10324,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -10305,7 +10332,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -10313,7 +10340,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10321,7 +10348,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -10329,7 +10356,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -10337,15 +10364,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
-        <v>811</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -10374,7 +10393,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10404,7 +10423,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -10415,7 +10434,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10426,7 +10445,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -10437,7 +10456,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -10448,7 +10467,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -10459,7 +10478,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -10470,7 +10489,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -10481,7 +10500,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -10492,7 +10511,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -10503,7 +10522,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -10514,7 +10533,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -10525,7 +10544,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -10536,7 +10555,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -10547,7 +10566,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -10558,7 +10577,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -10569,7 +10588,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -10580,7 +10599,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -10591,7 +10610,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -10602,7 +10621,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -10613,7 +10632,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -10624,7 +10643,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -10635,7 +10654,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -10646,7 +10665,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -10657,7 +10676,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -10668,7 +10687,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -10679,7 +10698,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -10690,7 +10709,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -10701,7 +10720,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -10712,7 +10731,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -10723,7 +10742,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -10734,7 +10753,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -10745,7 +10764,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -10756,7 +10775,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -10767,7 +10786,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -10778,7 +10797,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -10789,7 +10808,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -10800,7 +10819,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -10811,7 +10830,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -10822,7 +10841,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -10833,7 +10852,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -10844,7 +10863,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -10855,7 +10874,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -10866,7 +10885,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -10877,7 +10896,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -10888,7 +10907,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -10899,7 +10918,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -10910,7 +10929,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -10921,7 +10940,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -10932,7 +10951,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -10943,7 +10962,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -10954,7 +10973,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -10982,8 +11001,8 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>731</v>
+      <c r="B2" s="1" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10991,7 +11010,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>819</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -11013,7 +11032,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -11024,7 +11043,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -11035,7 +11054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -11046,7 +11065,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -11057,7 +11076,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -11068,7 +11087,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -11079,7 +11098,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -11090,7 +11109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -11101,7 +11120,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -11112,7 +11131,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -11123,7 +11142,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -11134,7 +11153,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -11145,7 +11164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -11156,7 +11175,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -11167,7 +11186,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -11178,7 +11197,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -11189,7 +11208,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -11200,7 +11219,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -11211,7 +11230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -11222,7 +11241,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -11233,7 +11252,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -11244,7 +11263,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -11255,7 +11274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -11266,7 +11285,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -11277,7 +11296,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -11306,7 +11325,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -11327,210 +11346,210 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B6" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B7" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B8" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B9" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B10" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B11" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B12" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B13" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B14" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B15" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B16" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B17" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B18" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B19" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B20" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B21" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B22" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B23" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B24" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B25" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B26" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B27" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B28" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B29" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B30" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B31" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KayJan\test-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A38CE6-241F-4EF5-A0B5-E9B41717E62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C555208B-75F8-46DC-BB84-BB0DA3458377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" firstSheet="11" activeTab="18" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" firstSheet="15" activeTab="19" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,10 @@
     <sheet name="Cann Edition" sheetId="17" r:id="rId17"/>
     <sheet name="Valentino Edition" sheetId="18" r:id="rId18"/>
     <sheet name="Existential Crisis Edition" sheetId="19" r:id="rId19"/>
+    <sheet name="Love Maps" sheetId="20" r:id="rId20"/>
+    <sheet name="Open Ended Questions" sheetId="21" r:id="rId21"/>
+    <sheet name="Rituals of Connection" sheetId="22" r:id="rId22"/>
+    <sheet name="Opportunity" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="1078">
   <si>
     <t>Card</t>
   </si>
@@ -2606,6 +2610,779 @@
 Use thought-provoking cards to find new dimensions in existing friendships as
 well as forge new ones. Invite over some friends, put the Cann on ice, and play
 the game that makes you *feel things*.</t>
+  </si>
+  <si>
+    <t>Name your partner's two closest friends.</t>
+  </si>
+  <si>
+    <t>What was your partner wearing when you first met?</t>
+  </si>
+  <si>
+    <t>What are your partner's hobbies?</t>
+  </si>
+  <si>
+    <t>Where was your partner born?</t>
+  </si>
+  <si>
+    <t>What stresses are facing your partner in the immediate future?</t>
+  </si>
+  <si>
+    <t>Describe in detail your partner's day, either today or yesterday.</t>
+  </si>
+  <si>
+    <t>When is your partner's birthday?</t>
+  </si>
+  <si>
+    <t>What is the date of your anniversary?</t>
+  </si>
+  <si>
+    <t>Who is your partner's favourite relative?</t>
+  </si>
+  <si>
+    <t>What is your partner's fondest dream, as yet unachieved?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite flower?</t>
+  </si>
+  <si>
+    <t>What is one of your partner's worst fears?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite time for making love?</t>
+  </si>
+  <si>
+    <t>What makes your partner feel most competent?</t>
+  </si>
+  <si>
+    <t>What turns your partner on sexually?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite food?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite way to spend an evening?</t>
+  </si>
+  <si>
+    <t>What personal improvements does your partner want to make in his or her life?</t>
+  </si>
+  <si>
+    <t>What kind of present would your partner like best?</t>
+  </si>
+  <si>
+    <t>What was one of your partner's best childhood experiences?</t>
+  </si>
+  <si>
+    <t>What was your partner's favourite vacation?</t>
+  </si>
+  <si>
+    <t>What is one of your partner's favourite ways of being soothed?</t>
+  </si>
+  <si>
+    <t>Who is your partner's greatest source of support (other than you)?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite sport?</t>
+  </si>
+  <si>
+    <t>What does your partner like to do with time off?</t>
+  </si>
+  <si>
+    <t>What is one of your partner's favourite weekend activities?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite getaway place?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite movie?</t>
+  </si>
+  <si>
+    <t>What are some of the important event coming up in your partner's life and how does he or she feel about them?</t>
+  </si>
+  <si>
+    <t>What are some of your partner's favourite ways to work out?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite cologne or perfume?</t>
+  </si>
+  <si>
+    <t>Who was your partner's best friend in childhood?</t>
+  </si>
+  <si>
+    <t>What is one of your partner's favourite magazines?</t>
+  </si>
+  <si>
+    <t>Name one of your partner's major rivals or "enemies".</t>
+  </si>
+  <si>
+    <t>What would be an ideal job for your partner?</t>
+  </si>
+  <si>
+    <t>What is your partner's greatest fear?</t>
+  </si>
+  <si>
+    <t>Who is your partner's least favourite relative?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite holiday?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite kind of reading?</t>
+  </si>
+  <si>
+    <t>What is your partner currently most sad about?</t>
+  </si>
+  <si>
+    <t>What is one of your partner's concern or worries?</t>
+  </si>
+  <si>
+    <t>What medical problems does your partner worry about?</t>
+  </si>
+  <si>
+    <t>What is your partner's worst childhood experience?</t>
+  </si>
+  <si>
+    <t>Which people does your partner most admire in the world? Name two.</t>
+  </si>
+  <si>
+    <t>Who is your partner's least favourite person you both know?</t>
+  </si>
+  <si>
+    <t>What is one of your partner's favourite desserts?</t>
+  </si>
+  <si>
+    <t>What is one of your partner's favourite novels?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite romantic restaurant?</t>
+  </si>
+  <si>
+    <t>What are two of your partner's aspirations, hopes, or wishes?</t>
+  </si>
+  <si>
+    <t>Does your partner have a secret ambition? What is it?</t>
+  </si>
+  <si>
+    <t>What food does your partner hate?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite animal?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite song?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite tree?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite colour?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite TV show?</t>
+  </si>
+  <si>
+    <t>Who is your partner's favourite poet?</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite side of the bed?</t>
+  </si>
+  <si>
+    <t>What was your partner's most embarrassing moment?</t>
+  </si>
+  <si>
+    <t>Want to improve your relationship? These are questions you can ask your partner,
+as well as suggestions for things to do and say. Start with one or two and see how
+it goes, then come back for more.</t>
+  </si>
+  <si>
+    <t>How do you see your work changing in the future?</t>
+  </si>
+  <si>
+    <t>How do you feel about our physical home? Any architectural changes you'd like to make?</t>
+  </si>
+  <si>
+    <t>How would you compare yourself as a mother/father to your own mother/father?</t>
+  </si>
+  <si>
+    <t>What kind of person do you think our child(ren) wil become? Any fears? Any hopes?</t>
+  </si>
+  <si>
+    <t>Is our child like anyone in your family? Who?</t>
+  </si>
+  <si>
+    <t>How do you feel about your family right now? Have these feelings changed lately?</t>
+  </si>
+  <si>
+    <t>How do you feel about work right now?</t>
+  </si>
+  <si>
+    <t>How are you feelign now about being a mother/father?</t>
+  </si>
+  <si>
+    <t>What do you find exciting in life right now?</t>
+  </si>
+  <si>
+    <t>What are your biggest worries about the future?</t>
+  </si>
+  <si>
+    <t>How do you think we could have more fun in our life?</t>
+  </si>
+  <si>
+    <t>Who are your best allies and close friends right now? How have they changed or you changed?</t>
+  </si>
+  <si>
+    <t>How have your friendships changed lately? Have you grown closer to some friends? More distant from others?</t>
+  </si>
+  <si>
+    <t>Who in your life is most stressful for you? Why?</t>
+  </si>
+  <si>
+    <t>What do you need right now in a friend?</t>
+  </si>
+  <si>
+    <t>What things are missing in your life?</t>
+  </si>
+  <si>
+    <t>How have you changed in the last year?</t>
+  </si>
+  <si>
+    <t>Have your goals in life changed recently?</t>
+  </si>
+  <si>
+    <t>What are some of your life dreams right now?</t>
+  </si>
+  <si>
+    <t>What goes do you have for our family?</t>
+  </si>
+  <si>
+    <t>What goes do you have just for yourself right now?</t>
+  </si>
+  <si>
+    <t>What is one way you would like to change?</t>
+  </si>
+  <si>
+    <t>What legacy do you want our family to take from your family? From your culture?</t>
+  </si>
+  <si>
+    <t>What are some unfulfilled things in your life?</t>
+  </si>
+  <si>
+    <t>What would you change about our finances right now?</t>
+  </si>
+  <si>
+    <t>Where would you like to travel?</t>
+  </si>
+  <si>
+    <t>What adventures would you like to have before you die?</t>
+  </si>
+  <si>
+    <t>How has your outlook on life ch anged in the past two years?</t>
+  </si>
+  <si>
+    <t>If you could live one other person's life, whose life would you choose and why?</t>
+  </si>
+  <si>
+    <t>If you could live during any other time period in history, when would you choose to live and why?</t>
+  </si>
+  <si>
+    <t>What do you imagine your life would be like if you lived 100 years from now?</t>
+  </si>
+  <si>
+    <t>If you could design the perfect house for us, what would it look like?</t>
+  </si>
+  <si>
+    <t>If you could choose any other career or vocation other than what you do now, what would you choose and why?</t>
+  </si>
+  <si>
+    <t>What were the highlights and low-lights of your adolescence?</t>
+  </si>
+  <si>
+    <t>If you could wake up tomorrow with three new skills in which you excelled, what would they be and why?</t>
+  </si>
+  <si>
+    <t>If you could re-do any decade of your life, which decade would you choose and why?</t>
+  </si>
+  <si>
+    <t>What kind of year has this been for you? Tell me the story of your proudest moment.</t>
+  </si>
+  <si>
+    <t>How have you changed as a daughter or son?</t>
+  </si>
+  <si>
+    <t>How have you changed as a brother or sister?</t>
+  </si>
+  <si>
+    <t>What relatives have you felt closest to and why?</t>
+  </si>
+  <si>
+    <t>Who has been the most difficult person in your life (other than a partner or spouse) and why?</t>
+  </si>
+  <si>
+    <t>If you could change into any animal for 24 hours, what would it be and why?</t>
+  </si>
+  <si>
+    <t>Who was your childhood hero or heroine and why?</t>
+  </si>
+  <si>
+    <t>If you could live in any other country but your home country, which would you pick and why?</t>
+  </si>
+  <si>
+    <t>If you could experience being any other person for 24 hours, who would you pick and why?</t>
+  </si>
+  <si>
+    <t>If you could be a genius in any art, music, drama, or dance, which talent would you choose and why?</t>
+  </si>
+  <si>
+    <t>If you could be a superstar in any sport, which sport would you choose and why?</t>
+  </si>
+  <si>
+    <t>If you could be the richest person in the world, what would you do with your money?</t>
+  </si>
+  <si>
+    <t>If you could look like anyone else in the world, who would you pick and why?</t>
+  </si>
+  <si>
+    <t>If you could change one characteristic about yourself, what would it be and why?</t>
+  </si>
+  <si>
+    <t>Communicating appreciation for your partner</t>
+  </si>
+  <si>
+    <t>Bringing friends into our home</t>
+  </si>
+  <si>
+    <t>Meal times</t>
+  </si>
+  <si>
+    <t>Celebrating success</t>
+  </si>
+  <si>
+    <t>Communicating daily appreciations</t>
+  </si>
+  <si>
+    <t>Throwing small dinner parties</t>
+  </si>
+  <si>
+    <t>Initiating lovemaking</t>
+  </si>
+  <si>
+    <t>Refusing lovemaking</t>
+  </si>
+  <si>
+    <t>Talking about how to improve lovemaking</t>
+  </si>
+  <si>
+    <t>Celebrating birthdays</t>
+  </si>
+  <si>
+    <t>Celebrating anniversaries</t>
+  </si>
+  <si>
+    <t>Celebrating holidays</t>
+  </si>
+  <si>
+    <t>Renewing ourselves when we are fatigued or burned out</t>
+  </si>
+  <si>
+    <t>Dealing with bad luck or hard days</t>
+  </si>
+  <si>
+    <t>Getting ready for bed</t>
+  </si>
+  <si>
+    <t>Falling asleep</t>
+  </si>
+  <si>
+    <t>Waking in the morning</t>
+  </si>
+  <si>
+    <t>Bringing up issues in our relationship</t>
+  </si>
+  <si>
+    <t>Expressing needs</t>
+  </si>
+  <si>
+    <t>Taking leave of one another (saying goodbye)</t>
+  </si>
+  <si>
+    <t>Reunions (saying hello)</t>
+  </si>
+  <si>
+    <t>Discussing stressful events</t>
+  </si>
+  <si>
+    <t>Spending time together on weekends</t>
+  </si>
+  <si>
+    <t>Planning and going on dates</t>
+  </si>
+  <si>
+    <t>Taking care of one another when one of us gets sick</t>
+  </si>
+  <si>
+    <t>Spending time with in-laws/extended family</t>
+  </si>
+  <si>
+    <t>Spending time with the kids in the evenings</t>
+  </si>
+  <si>
+    <t>Getting the kids ready for school in the morning</t>
+  </si>
+  <si>
+    <t>Shopping for groceries</t>
+  </si>
+  <si>
+    <t>Planning small adventures near our hometown (staycations)</t>
+  </si>
+  <si>
+    <t>Dreaming of the future</t>
+  </si>
+  <si>
+    <t>Setting goals together</t>
+  </si>
+  <si>
+    <t>Making meals at home and preparing recipes together</t>
+  </si>
+  <si>
+    <t>Planning for the upcoming week</t>
+  </si>
+  <si>
+    <t>Sharing tea or coffee together</t>
+  </si>
+  <si>
+    <t>Learning or taking classes together (dancing, cooking, etc.)</t>
+  </si>
+  <si>
+    <t>Participating in individual or joint hobbies</t>
+  </si>
+  <si>
+    <t>Spending time in nature</t>
+  </si>
+  <si>
+    <t>Running errands</t>
+  </si>
+  <si>
+    <t>Volunteering in the community</t>
+  </si>
+  <si>
+    <t>Playing board games at home</t>
+  </si>
+  <si>
+    <t>Exercising together</t>
+  </si>
+  <si>
+    <t>Sharing highs and lows</t>
+  </si>
+  <si>
+    <t>Staying in touch throughout the day using technology (texting/other message rituals)</t>
+  </si>
+  <si>
+    <t>Telling each other when we are overwhelmed or flooded</t>
+  </si>
+  <si>
+    <t>Making breakfast</t>
+  </si>
+  <si>
+    <t>Lazy weekend mornings at home</t>
+  </si>
+  <si>
+    <t>Being playful and silly with one another</t>
+  </si>
+  <si>
+    <t>Staying connected while we are apart (during the work day, when one of us is traveling, etc.)</t>
+  </si>
+  <si>
+    <t>Using time while travelling together (drive time, flying time, etc.)</t>
+  </si>
+  <si>
+    <t>Giving back to our community together</t>
+  </si>
+  <si>
+    <t>Fostering a sense of adventure in our lives</t>
+  </si>
+  <si>
+    <t>Planning and going on vacations</t>
+  </si>
+  <si>
+    <t>What is your partner's favourite musical group, composer, or instrument?</t>
+  </si>
+  <si>
+    <t>Having a big party at home</t>
+  </si>
+  <si>
+    <t>Disconnecting from devices and technology for a period of time in order to give undivided attention to each other</t>
+  </si>
+  <si>
+    <t>Open-ended questions cannot be answered with a simple 'yes' or 'no'. They have
+stories for answers. Uncover your hopes and dreams to deepen your understanding.
+Take turns asking each other questions. If your partner doesn't want to answer the
+question, pick another card. Do not be judgemental or critical as you listen to your
+partner's answer. Instead, be a 'dream detective'. Alternate roles as speaker and
+listener.</t>
+  </si>
+  <si>
+    <t>It's the little things that build trust, friendship, and closeness. This deck will help
+you recognize and act on the small, everyday moments that build intimacy in
+meaningful ways.
+It's important to have fun together as a couple! When you are at a loss for ideas,
+use these activity suggestions to plan your next date night or outing. Swipe
+through until you find something you both want to do.</t>
+  </si>
+  <si>
+    <t>Bring home something special for your partner (like flowers).</t>
+  </si>
+  <si>
+    <t>Get tickets to an exciting concert.</t>
+  </si>
+  <si>
+    <t>Take a class together.</t>
+  </si>
+  <si>
+    <t>Learn a new language and culture together. Visit that country if possible.</t>
+  </si>
+  <si>
+    <t>Find our your partner's favourite play and go see it.</t>
+  </si>
+  <si>
+    <t>Give your partner a full day off from household chores.</t>
+  </si>
+  <si>
+    <t>Making a sexy music playlist just for your partner.</t>
+  </si>
+  <si>
+    <t>Plan a picnic for the two of you.</t>
+  </si>
+  <si>
+    <t>Return to your honeymoon place or revisit a favourite location.</t>
+  </si>
+  <si>
+    <t>Ritual of Connection is a method of turning towards your partner that can be
+counted on. Use this deck to decide which rituals to include in your lives together.
+Select a card and discuss whether you would like to incorporate this ritual in your
+relationship, and if so, exactly how it should go, who should do what and when,
+and how it should end. Be sure to talk about if and why this is important to you,
+and how this ritual was handled (or mishandled) in your family or in previous
+relationships.</t>
+  </si>
+  <si>
+    <t>Buy a surprise present for your partner.</t>
+  </si>
+  <si>
+    <t>Plan a reunion party of all your partner's friends.</t>
+  </si>
+  <si>
+    <t>Discover your partner's turn ons and incorporate them into lovemaking.</t>
+  </si>
+  <si>
+    <t>Find out your partner's favourite movies and watch them together.</t>
+  </si>
+  <si>
+    <t>Take a leisurely bath together.</t>
+  </si>
+  <si>
+    <t>Go out to dinner and ask your partner questions about how their life is going.</t>
+  </si>
+  <si>
+    <t>Go to a wine tasting party.</t>
+  </si>
+  <si>
+    <t>Plan a candlelight dinner.</t>
+  </si>
+  <si>
+    <t>Find out your partner's favourite hero(ine) and read a book about him(her).</t>
+  </si>
+  <si>
+    <t>Go out dancing.</t>
+  </si>
+  <si>
+    <t>Plan a weekend camping trip together.</t>
+  </si>
+  <si>
+    <t>Look through an online store your partner likes and order something from it to surprise them.</t>
+  </si>
+  <si>
+    <t>Go clothes shopping for your partner and buy something you would like to see them in.</t>
+  </si>
+  <si>
+    <t>Bring home your partner's favourite dessert (like chocolates), prepare their favourite tea or coffee, and serve them.</t>
+  </si>
+  <si>
+    <t>Write a love letter and mail it to your partner.</t>
+  </si>
+  <si>
+    <t>Prepare a surprise breakfast in bed.</t>
+  </si>
+  <si>
+    <t>Plan some way that you would like to improve your home.</t>
+  </si>
+  <si>
+    <t>Plan a surprise party for your partner.</t>
+  </si>
+  <si>
+    <t>Surprise your partner with two tickets to some interesting place or event.</t>
+  </si>
+  <si>
+    <t>Buy tickets to a play that your partner wants to see.</t>
+  </si>
+  <si>
+    <t>Find or write a poem that expresses a genuine appreciation of your partner.</t>
+  </si>
+  <si>
+    <t>Plan a weekend getaway.</t>
+  </si>
+  <si>
+    <t>Plan a Valentine's getaway.</t>
+  </si>
+  <si>
+    <t>Plan a date.</t>
+  </si>
+  <si>
+    <t>Plan a cruise or vacation.</t>
+  </si>
+  <si>
+    <t>Find out your partner's favourite novel and read it.</t>
+  </si>
+  <si>
+    <t>Plan a monthly book club for the two of you and switch turns choosing the book.</t>
+  </si>
+  <si>
+    <t>Spend time together in garden.</t>
+  </si>
+  <si>
+    <t>Check our nearby museums together. (Often museums have discounted or free days!)</t>
+  </si>
+  <si>
+    <t>Read the local events paper and go to a festival or cultural event in your city.</t>
+  </si>
+  <si>
+    <t>Spend the day doing an activity or hobby of your partner's choosing.</t>
+  </si>
+  <si>
+    <t>Plan to attend a volunteering event.</t>
+  </si>
+  <si>
+    <t>Plan a scavenger hunt for your partner around your home or around the city.</t>
+  </si>
+  <si>
+    <t>Rent bikes and explore the city together.</t>
+  </si>
+  <si>
+    <t>Cook a new recipe together that you've been wanting to try.</t>
+  </si>
+  <si>
+    <t>Wake up early and watch the sunrise together.</t>
+  </si>
+  <si>
+    <t>Go to a comedy show.</t>
+  </si>
+  <si>
+    <t>Learn how to paint or do pottery together.</t>
+  </si>
+  <si>
+    <t>Go to an amusement park.</t>
+  </si>
+  <si>
+    <t>Have a water balloon or super-soaker fight on a hot summer day.</t>
+  </si>
+  <si>
+    <t>Build a snowman together and  have a snowball fight.</t>
+  </si>
+  <si>
+    <t>Do an exercise challenge together.</t>
+  </si>
+  <si>
+    <t>Disconnect to connect: decide on a period of time together that electronic devices will not be turned on at home.</t>
+  </si>
+  <si>
+    <t>Watch a TED talk or other inspiring video together to learn a new concept together.</t>
+  </si>
+  <si>
+    <t>View your old home videos of special couple or family memories.</t>
+  </si>
+  <si>
+    <t>Develop a dinner menu together that includes both your partner's and your favourite dishes.</t>
+  </si>
+  <si>
+    <t>Plan a game night. Enjoy a night in playing board/card games together.</t>
+  </si>
+  <si>
+    <t>Give your partner a special massage. (If you don't know how, watch a YouTube video or get a book and learn.)</t>
+  </si>
+  <si>
+    <t>Leave little notes all over the house with small endearments and express genuine appreciation.</t>
+  </si>
+  <si>
+    <t>Make up words for a secret language together.</t>
+  </si>
+  <si>
+    <t>Spend a rainy day cuddled on the couch with a good movie or TV show and order food in.</t>
+  </si>
+  <si>
+    <t>Binge watch your favourite TV show.</t>
+  </si>
+  <si>
+    <t>Cook dinner at home.</t>
+  </si>
+  <si>
+    <t>Have dessert in bed.</t>
+  </si>
+  <si>
+    <t>Take a romantic bath.</t>
+  </si>
+  <si>
+    <t>Try a new hobby together.</t>
+  </si>
+  <si>
+    <t>Video call one another.</t>
+  </si>
+  <si>
+    <t>Take a walk around your neighbourhood.</t>
+  </si>
+  <si>
+    <t>Read together.</t>
+  </si>
+  <si>
+    <t>Do YouTube dance lessons.</t>
+  </si>
+  <si>
+    <t>Have a backyard picnic.</t>
+  </si>
+  <si>
+    <t>Go through old photos.</t>
+  </si>
+  <si>
+    <t>Garden together.</t>
+  </si>
+  <si>
+    <t>Watch each other's favourite movies.</t>
+  </si>
+  <si>
+    <t>Attend a virtual bartending/mixology class.</t>
+  </si>
+  <si>
+    <t>Do the other person's favourite thing (and trade off)</t>
+  </si>
+  <si>
+    <t>Listen to music together.</t>
+  </si>
+  <si>
+    <t>Meditate and/or do yoga.</t>
+  </si>
+  <si>
+    <t>Play video games.</t>
+  </si>
+  <si>
+    <t>Watch the sunset.</t>
+  </si>
+  <si>
+    <t>Gotmann</t>
+  </si>
+  <si>
+    <t>An important factor in relationship success is knowing about your partner's inner
+world; we call this idea Love Maps.
+Swipe through the deck and see if you can answer the question as it relates to
+your partner. Then switch roles. Have your partner swipe through the deck and
+try to answer as it pertains to your world. Don't keep score. The goal is
+meaningful conversation and connection.</t>
   </si>
 </sst>
 </file>
@@ -2647,10 +3424,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7538,7 +8318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D2D5C-5401-4F25-8002-549E2C45E37A}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8396,6 +9176,2156 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1659DC61-407C-426F-AA60-143EAC012977}">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D0304A-DF57-4437-A329-33A2BEA0B3B1}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>937</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266716F5-2382-4BA3-89BC-34C748FDC5CA}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EB6A34-6766-4F36-ABD4-63EFDDDDD80E}">
+  <dimension ref="A1:B84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1B56EE-3E41-4700-94E1-99053861750B}">
   <dimension ref="A1:B56"/>

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KayJan\test-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C555208B-75F8-46DC-BB84-BB0DA3458377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20DA916-7C38-443B-B355-C0F48E0D7CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" firstSheet="15" activeTab="19" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" firstSheet="5" activeTab="7" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -2584,10 +2584,6 @@
     <t>There's always another layer to anyone you (think you) know</t>
   </si>
   <si>
-    <t>The intention behind this set of questions and wildcards is to dig deeper with
-the people in our lives that we think we know best.</t>
-  </si>
-  <si>
     <t>Despite being physically apart, our emotional connections don't need to suffer.</t>
   </si>
   <si>
@@ -3383,6 +3379,11 @@
 your partner. Then switch roles. Have your partner swipe through the deck and
 try to answer as it pertains to your world. Don't keep score. The goal is
 meaningful conversation and connection.</t>
+  </si>
+  <si>
+    <t>Does knowing someone for long equate to knowing them deeply? The intention
+behind this set of questions and wildcards is to dig deeper with the people in
+our lives that we think we know best.</t>
   </si>
 </sst>
 </file>
@@ -4652,7 +4653,7 @@
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -4707,7 +4708,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -4762,7 +4763,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -4828,7 +4829,7 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -4850,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -6461,7 +6462,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7767,7 +7768,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9180,7 +9181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1659DC61-407C-426F-AA60-143EAC012977}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9189,7 +9190,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9197,7 +9198,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9205,7 +9206,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -9224,7 +9225,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9232,7 +9233,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9240,7 +9241,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9248,7 +9249,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9256,7 +9257,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9264,7 +9265,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9272,7 +9273,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9280,7 +9281,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9288,7 +9289,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9296,7 +9297,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9304,7 +9305,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9312,7 +9313,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9320,7 +9321,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9328,7 +9329,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9336,7 +9337,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9344,7 +9345,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9352,7 +9353,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9360,7 +9361,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9368,7 +9369,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9376,7 +9377,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9384,7 +9385,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9392,7 +9393,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9400,7 +9401,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9408,7 +9409,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9416,7 +9417,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9424,7 +9425,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9432,7 +9433,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9440,7 +9441,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -9448,7 +9449,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9456,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9464,7 +9465,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -9472,7 +9473,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -9480,7 +9481,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -9488,7 +9489,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -9496,7 +9497,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -9504,7 +9505,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -9512,7 +9513,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -9520,7 +9521,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -9528,7 +9529,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -9536,7 +9537,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -9544,7 +9545,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -9552,7 +9553,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -9560,7 +9561,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -9568,7 +9569,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -9576,7 +9577,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -9584,7 +9585,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -9592,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -9600,7 +9601,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -9608,7 +9609,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -9616,7 +9617,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -9624,7 +9625,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -9632,7 +9633,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -9640,7 +9641,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -9648,7 +9649,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -9656,7 +9657,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -9664,7 +9665,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -9672,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -9680,7 +9681,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -9688,7 +9689,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -9696,7 +9697,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
   </sheetData>
@@ -9719,7 +9720,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9727,7 +9728,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9735,7 +9736,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -9754,7 +9755,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9762,7 +9763,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9770,7 +9771,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9778,7 +9779,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9786,7 +9787,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9794,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9802,7 +9803,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9810,7 +9811,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9818,7 +9819,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9826,7 +9827,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9834,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9842,7 +9843,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9850,7 +9851,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9858,7 +9859,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9866,7 +9867,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9874,7 +9875,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9882,7 +9883,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9890,7 +9891,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9898,7 +9899,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9906,7 +9907,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9914,7 +9915,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9922,7 +9923,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9930,7 +9931,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9938,7 +9939,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9946,7 +9947,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9954,7 +9955,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9962,7 +9963,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9970,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -9978,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9986,7 +9987,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9994,7 +9995,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -10002,7 +10003,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -10010,7 +10011,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -10018,7 +10019,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10026,7 +10027,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -10034,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -10042,7 +10043,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10050,7 +10051,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -10058,7 +10059,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10066,7 +10067,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -10074,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -10082,7 +10083,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -10090,7 +10091,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -10098,7 +10099,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -10106,7 +10107,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -10114,7 +10115,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -10122,7 +10123,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -10130,7 +10131,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -10138,7 +10139,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10146,7 +10147,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -10169,7 +10170,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -10177,7 +10178,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10185,7 +10186,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -10204,7 +10205,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -10212,7 +10213,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -10220,7 +10221,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -10228,7 +10229,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -10236,7 +10237,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -10244,7 +10245,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -10252,7 +10253,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -10260,7 +10261,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -10268,7 +10269,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -10276,7 +10277,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -10284,7 +10285,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -10292,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -10300,7 +10301,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -10308,7 +10309,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -10316,7 +10317,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -10324,7 +10325,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -10332,7 +10333,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -10340,7 +10341,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -10348,7 +10349,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -10356,7 +10357,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -10364,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -10372,7 +10373,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -10380,7 +10381,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -10388,7 +10389,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -10396,7 +10397,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -10404,7 +10405,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -10412,7 +10413,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -10420,7 +10421,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -10428,7 +10429,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -10436,7 +10437,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -10444,7 +10445,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -10452,7 +10453,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -10460,7 +10461,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -10468,7 +10469,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10476,7 +10477,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -10484,7 +10485,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -10492,7 +10493,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10500,7 +10501,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -10508,7 +10509,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10516,7 +10517,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -10524,7 +10525,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -10532,7 +10533,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -10540,7 +10541,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -10548,7 +10549,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -10556,7 +10557,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -10564,7 +10565,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -10572,7 +10573,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -10580,7 +10581,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -10588,7 +10589,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10596,7 +10597,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -10604,7 +10605,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -10612,7 +10613,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -10620,7 +10621,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -10628,7 +10629,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -10636,7 +10637,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -10659,7 +10660,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -10667,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10675,7 +10676,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -10694,7 +10695,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -10702,7 +10703,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -10710,7 +10711,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -10718,7 +10719,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -10726,7 +10727,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -10734,7 +10735,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -10742,7 +10743,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -10750,7 +10751,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -10758,7 +10759,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -10766,7 +10767,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -10774,7 +10775,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -10782,7 +10783,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -10790,7 +10791,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -10798,7 +10799,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -10806,7 +10807,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -10814,7 +10815,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -10822,7 +10823,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -10830,7 +10831,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -10838,7 +10839,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -10846,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -10854,7 +10855,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -10862,7 +10863,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -10870,7 +10871,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -10878,7 +10879,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -10886,7 +10887,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -10894,7 +10895,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -10902,7 +10903,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -10910,7 +10911,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -10918,7 +10919,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -10926,7 +10927,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -10934,7 +10935,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -10942,7 +10943,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -10950,7 +10951,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -10958,7 +10959,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10966,7 +10967,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -10974,7 +10975,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -10982,7 +10983,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10990,7 +10991,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -10998,7 +10999,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -11006,7 +11007,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -11014,7 +11015,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -11022,7 +11023,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -11030,7 +11031,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -11038,7 +11039,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -11046,7 +11047,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -11054,7 +11055,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -11062,7 +11063,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -11070,7 +11071,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -11078,7 +11079,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -11086,7 +11087,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -11094,7 +11095,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -11102,7 +11103,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -11110,7 +11111,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -11118,7 +11119,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -11126,7 +11127,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -11134,7 +11135,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -11142,7 +11143,7 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -11150,7 +11151,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -11158,7 +11159,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -11166,7 +11167,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -11174,7 +11175,7 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -11182,7 +11183,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -11190,7 +11191,7 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -11198,7 +11199,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -11206,7 +11207,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -11214,7 +11215,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -11222,7 +11223,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -11230,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -11238,7 +11239,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -11246,7 +11247,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -11254,7 +11255,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -11262,7 +11263,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -11270,7 +11271,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -11278,7 +11279,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -11286,7 +11287,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -11294,7 +11295,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -11302,7 +11303,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -11310,7 +11311,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -11318,7 +11319,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
@@ -13915,7 +13916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B8EA38-56AE-433B-9F6B-066A2B5BF62F}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -13932,14 +13933,14 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>820</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>819</v>
       </c>
     </row>

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KayJan\test-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20DA916-7C38-443B-B355-C0F48E0D7CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4EB325-B623-4AA8-B241-6D7219179472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" firstSheet="5" activeTab="7" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" firstSheet="15" activeTab="18" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -2799,9 +2799,6 @@
     <t>How would you compare yourself as a mother/father to your own mother/father?</t>
   </si>
   <si>
-    <t>What kind of person do you think our child(ren) wil become? Any fears? Any hopes?</t>
-  </si>
-  <si>
     <t>Is our child like anyone in your family? Who?</t>
   </si>
   <si>
@@ -2811,9 +2808,6 @@
     <t>How do you feel about work right now?</t>
   </si>
   <si>
-    <t>How are you feelign now about being a mother/father?</t>
-  </si>
-  <si>
     <t>What do you find exciting in life right now?</t>
   </si>
   <si>
@@ -2871,9 +2865,6 @@
     <t>What adventures would you like to have before you die?</t>
   </si>
   <si>
-    <t>How has your outlook on life ch anged in the past two years?</t>
-  </si>
-  <si>
     <t>If you could live one other person's life, whose life would you choose and why?</t>
   </si>
   <si>
@@ -3106,14 +3097,6 @@
   </si>
   <si>
     <t>Disconnecting from devices and technology for a period of time in order to give undivided attention to each other</t>
-  </si>
-  <si>
-    <t>Open-ended questions cannot be answered with a simple 'yes' or 'no'. They have
-stories for answers. Uncover your hopes and dreams to deepen your understanding.
-Take turns asking each other questions. If your partner doesn't want to answer the
-question, pick another card. Do not be judgemental or critical as you listen to your
-partner's answer. Instead, be a 'dream detective'. Alternate roles as speaker and
-listener.</t>
   </si>
   <si>
     <t>It's the little things that build trust, friendship, and closeness. This deck will help
@@ -3331,9 +3314,6 @@
     <t>Video call one another.</t>
   </si>
   <si>
-    <t>Take a walk around your neighbourhood.</t>
-  </si>
-  <si>
     <t>Read together.</t>
   </si>
   <si>
@@ -3384,6 +3364,26 @@
     <t>Does knowing someone for long equate to knowing them deeply? The intention
 behind this set of questions and wildcards is to dig deeper with the people in
 our lives that we think we know best.</t>
+  </si>
+  <si>
+    <t>How are you feeling now about being a mother/father?</t>
+  </si>
+  <si>
+    <t>Open-ended questions cannot be answered with a simple 'yes' or 'no'. They have
+stories for answers. Uncover your hopes and dreams to deepen your understanding.
+Take turns asking each other questions. If your partner doesn't want to answer the
+question, pick another card. Do not be judgmental or critical as you listen to your
+partner's answer. Instead, be a 'dream detective'. Alternate roles as speaker and
+listener.</t>
+  </si>
+  <si>
+    <t>What kind of person do you think our child(ren) will become? Any fears? Any hopes?</t>
+  </si>
+  <si>
+    <t>How has your outlook on life changed in the past two years?</t>
+  </si>
+  <si>
+    <t>Take a walk around your neighborhood.</t>
   </si>
 </sst>
 </file>
@@ -8319,7 +8319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711D2D5C-5401-4F25-8002-549E2C45E37A}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9181,7 +9181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1659DC61-407C-426F-AA60-143EAC012977}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9190,7 +9192,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9198,7 +9200,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9233,7 +9235,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9709,9 +9711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D0304A-DF57-4437-A329-33A2BEA0B3B1}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9720,15 +9720,15 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>993</v>
+      <c r="B2" s="3" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9779,7 +9779,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>890</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9787,7 +9787,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9795,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9803,7 +9803,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9811,7 +9811,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>894</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9819,7 +9819,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9827,7 +9827,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9843,7 +9843,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9851,7 +9851,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9859,7 +9859,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9867,7 +9867,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9875,7 +9875,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9883,7 +9883,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9891,7 +9891,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9899,7 +9899,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9907,7 +9907,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9915,7 +9915,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9923,7 +9923,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9931,7 +9931,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9939,7 +9939,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9947,7 +9947,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9955,7 +9955,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9963,7 +9963,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9971,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>914</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -9979,7 +9979,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9987,7 +9987,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9995,7 +9995,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -10003,7 +10003,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -10011,7 +10011,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -10019,7 +10019,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10027,7 +10027,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -10043,7 +10043,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10051,7 +10051,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -10059,7 +10059,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10067,7 +10067,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -10083,7 +10083,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -10091,7 +10091,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -10099,7 +10099,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -10107,7 +10107,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -10115,7 +10115,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -10123,7 +10123,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -10131,7 +10131,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -10139,7 +10139,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10147,7 +10147,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -10160,7 +10160,7 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10170,7 +10170,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -10178,7 +10178,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10205,7 +10205,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -10213,7 +10213,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -10221,7 +10221,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -10229,7 +10229,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -10237,7 +10237,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -10245,7 +10245,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -10253,7 +10253,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -10261,7 +10261,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -10269,7 +10269,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -10277,7 +10277,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -10285,7 +10285,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -10293,7 +10293,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -10301,7 +10301,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -10309,7 +10309,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -10317,7 +10317,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -10325,7 +10325,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -10333,7 +10333,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -10341,7 +10341,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -10349,7 +10349,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -10357,7 +10357,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -10365,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -10373,7 +10373,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -10381,7 +10381,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -10389,7 +10389,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -10397,7 +10397,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -10405,7 +10405,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -10413,7 +10413,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -10421,7 +10421,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -10429,7 +10429,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -10437,7 +10437,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -10445,7 +10445,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -10453,7 +10453,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -10461,7 +10461,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -10469,7 +10469,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10477,7 +10477,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -10485,7 +10485,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -10493,7 +10493,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10501,7 +10501,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -10509,7 +10509,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10517,7 +10517,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -10525,7 +10525,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -10533,7 +10533,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -10541,7 +10541,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -10549,7 +10549,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -10557,7 +10557,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -10565,7 +10565,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -10573,7 +10573,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -10581,7 +10581,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -10589,7 +10589,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10597,7 +10597,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -10605,7 +10605,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -10613,7 +10613,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -10621,7 +10621,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -10629,7 +10629,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -10637,7 +10637,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -10650,7 +10650,7 @@
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10660,7 +10660,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -10668,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10695,7 +10695,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -10703,7 +10703,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -10711,7 +10711,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -10719,7 +10719,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -10727,7 +10727,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -10735,7 +10735,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -10743,7 +10743,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -10751,7 +10751,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -10759,7 +10759,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -10767,7 +10767,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -10775,7 +10775,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -10783,7 +10783,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -10791,7 +10791,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -10799,7 +10799,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -10807,7 +10807,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -10815,7 +10815,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -10823,7 +10823,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -10831,7 +10831,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -10839,7 +10839,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -10847,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -10855,7 +10855,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -10863,7 +10863,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -10871,7 +10871,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -10879,7 +10879,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -10887,7 +10887,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -10895,7 +10895,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -10903,7 +10903,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -10911,7 +10911,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -10919,7 +10919,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -10927,7 +10927,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -10935,7 +10935,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -10943,7 +10943,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -10951,7 +10951,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -10959,7 +10959,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10967,7 +10967,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -10975,7 +10975,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -10983,7 +10983,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10991,7 +10991,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -10999,7 +10999,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -11007,7 +11007,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -11015,7 +11015,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -11023,7 +11023,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -11031,7 +11031,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -11039,7 +11039,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -11047,7 +11047,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -11055,7 +11055,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -11063,7 +11063,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -11071,7 +11071,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -11079,7 +11079,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -11087,7 +11087,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -11095,7 +11095,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -11103,7 +11103,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -11111,7 +11111,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -11119,7 +11119,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -11127,7 +11127,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -11135,7 +11135,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -11143,7 +11143,7 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -11151,7 +11151,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -11159,7 +11159,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -11167,7 +11167,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -11175,7 +11175,7 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -11183,7 +11183,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -11191,7 +11191,7 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -11199,7 +11199,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -11207,7 +11207,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -11215,7 +11215,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -11223,7 +11223,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>1062</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -11231,7 +11231,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -11239,7 +11239,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -11247,7 +11247,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -11255,7 +11255,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -11263,7 +11263,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -11271,7 +11271,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -11279,7 +11279,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -11287,7 +11287,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -11295,7 +11295,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -11303,7 +11303,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -11311,7 +11311,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -11319,7 +11319,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -13916,7 +13916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B8EA38-56AE-433B-9F6B-066A2B5BF62F}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -13933,7 +13933,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KayJan/test-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D418E4-93AF-1745-8E81-250EE59D79AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F4FB6B-67EE-5F46-B663-37E92BC85FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2140" windowWidth="38400" windowHeight="19400" tabRatio="829" activeTab="3" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="-38400" yWindow="-5320" windowWidth="38400" windowHeight="21100" tabRatio="829" firstSheet="12" activeTab="23" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="Open Ended Questions" sheetId="21" r:id="rId21"/>
     <sheet name="Rituals of Connection" sheetId="22" r:id="rId22"/>
     <sheet name="Opportunity" sheetId="23" r:id="rId23"/>
+    <sheet name="Couple" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1275">
   <si>
     <t>Card</t>
   </si>
@@ -3444,6 +3445,546 @@
   </si>
   <si>
     <t>What's your most vivid\n valentine's day memory?</t>
+  </si>
+  <si>
+    <t>Couple Questions</t>
+  </si>
+  <si>
+    <t>One of the most important things in a relationship is learning about your partner.
+You can know what to expect from them and can figure out if you two are a good
+match. It’s important to be non-judgmental when asking and answering these
+questions. It’s not about telling your partner the things they do wrong or the
+things you want from them. It’s about working together as a couple to build a
+healthy relationship.</t>
+  </si>
+  <si>
+    <t>What's your ideal way to spend a vacation?</t>
+  </si>
+  <si>
+    <t>What makes you dislike a person?</t>
+  </si>
+  <si>
+    <t>Do you think you are a confident person? Why or why not?</t>
+  </si>
+  <si>
+    <t>What about yourself are you most proud of?</t>
+  </si>
+  <si>
+    <t>What would the best version of you be like?</t>
+  </si>
+  <si>
+    <t>What life experiences did you miss out on?</t>
+  </si>
+  <si>
+    <t>When are you the most "you"?</t>
+  </si>
+  <si>
+    <t>How did you fall out with some of your previously close friends?</t>
+  </si>
+  <si>
+    <t>Are you happy with the people you surround yourself with? Why or why not?</t>
+  </si>
+  <si>
+    <t>What musical instrument do you wish you could play?</t>
+  </si>
+  <si>
+    <t>When has a mundane occurrence or chance completely changed the course of your life? What is the nicest compliment you've received?</t>
+  </si>
+  <si>
+    <t>What age would you like to live to?</t>
+  </si>
+  <si>
+    <t>If you could travel to any country in the world for one month, where would you go? What is your favorite memory of someone who isn't in your life anymore?</t>
+  </si>
+  <si>
+    <t>How superstitious are you?</t>
+  </si>
+  <si>
+    <t>What has been a recurring theme in your life?</t>
+  </si>
+  <si>
+    <t>What was your most inappropriate or embarrassing fart?</t>
+  </si>
+  <si>
+    <t>What do you think happens after death?</t>
+  </si>
+  <si>
+    <t>What are your top 5 rules for life?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your favorite thing in your / our house? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What book or movie do you wish you could experience for the first time again? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you had a friend who spoke to you the same way you speak to yourself, would you keep them as a friend? </t>
+  </si>
+  <si>
+    <t>What petty thing that people do really gets on your nerves? What brings meaning to your life?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is something you wish you could say to people but can’t? What are some of the most attractive traits a person can have? What's a secret you've never told anyone? </t>
+  </si>
+  <si>
+    <t>What small pleasures do you enjoy the most?</t>
+  </si>
+  <si>
+    <t>Who is the most irritating person you know?</t>
+  </si>
+  <si>
+    <t>What has been your biggest screw up so far?</t>
+  </si>
+  <si>
+    <t>What have you struggled with your entire life?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the most significant change you would like to make in your life? What do you want out of life? </t>
+  </si>
+  <si>
+    <t>What calms you down the most?</t>
+  </si>
+  <si>
+    <t>What are kinds of things do you find repulsive?</t>
+  </si>
+  <si>
+    <t>What would your perfect life look like?</t>
+  </si>
+  <si>
+    <t>If you received a salary to follow whatever passion you wanted to, what would you do?</t>
+  </si>
+  <si>
+    <t>What's your most embarrassing story about being sick?</t>
+  </si>
+  <si>
+    <t>What friend have you not thought about in a long time?</t>
+  </si>
+  <si>
+    <t>What's the craziest thing that has happened at a job you worked at?</t>
+  </si>
+  <si>
+    <t>Who do you act nice around but secretly dislike?</t>
+  </si>
+  <si>
+    <t>If money was no object, and with no input from me, how would you decorate your / our house? How good are you at reading people?</t>
+  </si>
+  <si>
+    <t>Are you hopeful about your future?</t>
+  </si>
+  <si>
+    <t>Who do you want to be more like or who do you look up to most?</t>
+  </si>
+  <si>
+    <t>What were the healthiest and unhealthiest periods of your life?</t>
+  </si>
+  <si>
+    <t>What's the worst emotional or mental anguish you've endured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you like most about where we live? </t>
+  </si>
+  <si>
+    <t>What do you worry about?</t>
+  </si>
+  <si>
+    <t>What's something you screwed up and then tried to hide?</t>
+  </si>
+  <si>
+    <t>What's the scariest / creepiest place you have ever been?</t>
+  </si>
+  <si>
+    <t>Do you think the world is improving or getting worse? Why?</t>
+  </si>
+  <si>
+    <t>How do you think society is changing? Do you think we'll change with it?</t>
+  </si>
+  <si>
+    <t>What’s the worst thing that people are proud of?</t>
+  </si>
+  <si>
+    <t>What’s the biggest betrayal you have ever experienced?</t>
+  </si>
+  <si>
+    <t>What would be the greatest gift to receive?</t>
+  </si>
+  <si>
+    <t>What is something that you are dreading?</t>
+  </si>
+  <si>
+    <t>What makes you feel super fancy?</t>
+  </si>
+  <si>
+    <t>What would you want your obituary to say?</t>
+  </si>
+  <si>
+    <t>What has taken up too much of your life?</t>
+  </si>
+  <si>
+    <t>What’s the most disheartening and heartening realization you have come to?</t>
+  </si>
+  <si>
+    <t>What was the hardest lesson you’ve had to learn?</t>
+  </si>
+  <si>
+    <t>Would you take 3 million dollars if it meant that the person you hate most in the world gets 9 million? What part of you as a person still needs a lot of work?</t>
+  </si>
+  <si>
+    <t>What are some words of wisdom that have stuck with you all these years?</t>
+  </si>
+  <si>
+    <t>How well do you know yourself?</t>
+  </si>
+  <si>
+    <t>What is your best (not worst) flaw?</t>
+  </si>
+  <si>
+    <t>How forgiving are you?</t>
+  </si>
+  <si>
+    <t>Tell me about a time you almost died.</t>
+  </si>
+  <si>
+    <t>Are you ashamed of anything you did in the past? If you are comfortable talking about it, what was it? Do you prefer living in the countryside, in a town, or in a big city? Why?</t>
+  </si>
+  <si>
+    <t>What's your fondest memory of a tree?</t>
+  </si>
+  <si>
+    <t>What are some of the most pleasant sensations for you?</t>
+  </si>
+  <si>
+    <t>Are you happy with the career path you chose or do you wish you had chosen a different career? What's the most unethical thing you do regularly?</t>
+  </si>
+  <si>
+    <t>What is way more difficult than it sounds?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What job do you think you were born to do? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the biggest financial mistake you've made? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What makes you lose faith in humanity when you think about it? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was the most painful thing to hear? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What biases do you think you have? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are you battling that you don’t tell anyone about? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What luxury do you enjoy treating yourself to? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you most like to do when you have alone time? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is normal now that will be considered unethical and barbaric in 100 years? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you're gone when you want to be remembered for? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there was a horrible accident and you were unconscious and on life support, how long would you want to be on life support? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you believe in good luck and bad luck? How about things that are lucky or unlucky? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you had a million dollars to give to any charity, what type of charity would you give it to? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's something that a lot of people are afraid of, but you aren't? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you could open a business what type of business would you open? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What can someone do that makes them immediately unattractive to you, no matter how attractive they are physically? </t>
+  </si>
+  <si>
+    <t>What untrue thing did you believe for an incredibly long time?</t>
+  </si>
+  <si>
+    <t>What were the three most important turning points in your life?</t>
+  </si>
+  <si>
+    <t>What animal are you most afraid of?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What scandal happened in your neighbor or town when you were growing up? How well do you think you would handle prison? </t>
+  </si>
+  <si>
+    <t>What's the most awkward social situation you've been in?</t>
+  </si>
+  <si>
+    <t>What is something that scares you on a daily basis?</t>
+  </si>
+  <si>
+    <t>When was the last time you cried?</t>
+  </si>
+  <si>
+    <t>What's the most peaceful/restful night of sleep you've had?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the most dangerous, thrill-seeking thing you would consider doing? What's your biggest regret? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it better to trust people or not trust people? And why? </t>
+  </si>
+  <si>
+    <t>What do you think your best and worst personality traits are? Who do you miss the most?</t>
+  </si>
+  <si>
+    <t>What is the hardest life lesson you've had to learn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you take for granted? </t>
+  </si>
+  <si>
+    <t>What's the most stressful situation you've been in? How did you handle it? What's the most ambitious thing you've attempted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How often do you change your opinions or how you view the world? What's the biggest opportunity you were given? </t>
+  </si>
+  <si>
+    <t>What is something we should enjoy more because it won't be around for long? What's a question you wish people would ask more often?</t>
+  </si>
+  <si>
+    <t>What is the saddest thing about your life that nobody knows?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are you most sentimental about? </t>
+  </si>
+  <si>
+    <t>Do you think people more people look down on you or up to you? Why? What question do you most want an answer to?</t>
+  </si>
+  <si>
+    <t>What are some of the telltale signs of a shallow person?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you look forward to most in the day? </t>
+  </si>
+  <si>
+    <t>If you could instantly learn a talent or skill, what would you want to know how to do? When is your favorite time of day?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the best and worst things about the period of history we are living through? What's the most rewarding thing in your daily routine? </t>
+  </si>
+  <si>
+    <t>What weird thing stresses you out more than it should?</t>
+  </si>
+  <si>
+    <t>When do you feel like you are really in your element?</t>
+  </si>
+  <si>
+    <t>How likely are you to believe in conspiracy theories?</t>
+  </si>
+  <si>
+    <t>What are some alcohol-induced stories of your younger days?</t>
+  </si>
+  <si>
+    <t>What's the best way for someone to improve themselves?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was the most productive time in your life? How about the least productive? What three words best describe you? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How well do you function under a lot of pressure? What is your weakness? </t>
+  </si>
+  <si>
+    <t>What are two of the most important events in your life?</t>
+  </si>
+  <si>
+    <t>What is something you know is bad for you but you can't seem to get away from it?</t>
+  </si>
+  <si>
+    <t>What's the biggest favor you've done for someone?</t>
+  </si>
+  <si>
+    <t>How does your current morning routine compare to your ideal morning routine?</t>
+  </si>
+  <si>
+    <t>What brings you the most joy?</t>
+  </si>
+  <si>
+    <t>What are you purposefully ignoring even though you know you should probably deal with it?</t>
+  </si>
+  <si>
+    <t>What do you wish you were better at?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there anything you did wrong for years and years, only to discover later that you were doing it wrong? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is something your parents did or used to do that really embarrassed you? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What small seemingly insignificant thing did your parents, or someone else say when you were a child that has stuck with you all this time? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the best or worst thing you inherited from your parents? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What made you realize that your parents were just human like everyone else? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What habits do you still have from childhood? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What family vacations did you take as a child? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How traditionally “normal” was your family? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children are often very similar to their parents. How do you want to be different than your parents? And how do you want to be similar to them? </t>
+  </si>
+  <si>
+    <t>What school subjects did you like and hate most when you were in school? What unique game of pretend did you frequently play as a child?</t>
+  </si>
+  <si>
+    <t>What movie seriously scarred you as a child or as an adult?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What irrational fears did you have as a child? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What toy played the most significant part in your childhood? What are some of your earliest memories? </t>
+  </si>
+  <si>
+    <t>What is something I did that you thought was exceptionally kind or thoughtful? What new hobbies or activities would you like to try together as a couple? What's our greatest strength as a couple?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What could we do to make our relationship stronger? </t>
+  </si>
+  <si>
+    <t>What is something small that we can do daily for each other to make our lives better? How much space / alone time should people in a relationship give each other?</t>
+  </si>
+  <si>
+    <t>What questions should partners ask each other before getting married?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do I do that makes you the happiest? </t>
+  </si>
+  <si>
+    <t>How important is it for individuals in a relationship to maintain their own separate identity? What makes our relationship better than other relationships?</t>
+  </si>
+  <si>
+    <t>What do you think our life will look like in 10 years?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you think would bring us closer together as a couple? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What kind of memories do you want to make together? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you think the most essential thing in a successful relationship is? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your favorite way we spend time together? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your favorite gift I've given you? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where do you want to live when we retire? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In what areas do you think our personalities complement each other? (i.e. One is too reckless, and the other is too cautious, and it balances out to a happy medium.) </t>
+  </si>
+  <si>
+    <t>How well do you think we communicate?</t>
+  </si>
+  <si>
+    <t>What adventure would you like to go on with me?</t>
+  </si>
+  <si>
+    <t>What's the best relationship advice you've received?</t>
+  </si>
+  <si>
+    <t>What are some things you really like about me?</t>
+  </si>
+  <si>
+    <t>What do you think the hardest thing about marriage/being in a relationship is? What can I do to most help us?</t>
+  </si>
+  <si>
+    <t>What do you see as your role in our relationship?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would be a deal breaker for our relationship, something you couldn't forgive? </t>
+  </si>
+  <si>
+    <t>What makes us different than other couples?</t>
+  </si>
+  <si>
+    <t>What do you think would be the best way to strengthen our relationship? What are some of your relationship goals?</t>
+  </si>
+  <si>
+    <t>How realistic do you think couples in movies and TV are?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does a happy and healthy relationship look like to you? </t>
+  </si>
+  <si>
+    <t>How well do you think our sex drives match up?</t>
+  </si>
+  <si>
+    <t>How important do you think sex is in our relationship?</t>
+  </si>
+  <si>
+    <t>What are you into, but haven’t told me about?</t>
+  </si>
+  <si>
+    <t>What do I do in bed that drives you wild?</t>
+  </si>
+  <si>
+    <t>What is the most adventurous thing you've done sexually?</t>
+  </si>
+  <si>
+    <t>Besides orgasms, what is the best part of sex?</t>
+  </si>
+  <si>
+    <t>What’s the most embarrassing thing that has happened to you while having sex? When am I at my sexiest?</t>
+  </si>
+  <si>
+    <t>What would you like me to do in the bedroom to spice things up a bit?</t>
+  </si>
+  <si>
+    <t>What’s better than great sex?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do I do outside the bedroom that turns you on? </t>
+  </si>
+  <si>
+    <t>Do you eventually want to have children? How many children do you eventually want? Why? What's the worst parenting mistake a couple can make?</t>
+  </si>
+  <si>
+    <t>What is the best way to raise children?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How would we know if we did our job as parents well? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you think it is more important for a couple with kids to focus on the kids more or each other more? Why? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you think having kids will / has changed our lives and relationship? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether you are a new couple, or you've been a couple for years and years,
+we've got loads of questions for couples that will be perfect for getting a
+great conversation going. Level 1 is about ice breakers, Level 2 is about
+family and childhood, Level 3 is about relationship, and Level 4 is about
+sex and having kids. </t>
+  </si>
+  <si>
+    <t>Relationship Edition</t>
   </si>
 </sst>
 </file>
@@ -3507,6 +4048,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="page1image23251392">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A916F2-4BFD-7E54-AADC-A816E4054A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1651000" y="4953000"/>
+          <a:ext cx="3060700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7912,7 +8519,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A6" sqref="A6:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10441,9 +11048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266716F5-2382-4BA3-89BC-34C748FDC5CA}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -10463,11 +11068,11 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>992</v>
       </c>
     </row>
@@ -10939,9 +11544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EB6A34-6766-4F36-ABD4-63EFDDDDD80E}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView zoomScale="158" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11622,6 +12225,1970 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA8A9E1-0154-BF46-81F5-4F5B0654000C}">
+  <dimension ref="A1:C179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>733</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>733</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>733</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>733</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>733</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>733</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>733</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>733</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>733</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>733</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>733</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>733</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>733</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>733</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>733</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>733</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>733</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>733</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>733</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>733</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>733</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>733</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>733</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>733</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>733</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>733</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>733</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>733</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>733</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>733</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>733</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>733</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>733</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>733</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>733</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>733</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>733</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>733</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>733</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>733</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>733</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>733</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>733</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>733</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>733</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>733</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>733</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>733</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>733</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>733</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>733</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>733</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>733</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>733</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>733</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>733</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>733</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>733</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>733</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>733</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>733</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>733</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>733</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>733</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>733</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>733</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>733</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>733</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>733</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>733</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>733</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>733</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>733</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>733</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>733</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>733</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>733</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>733</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>733</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>733</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>733</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>733</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>733</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>733</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>733</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>733</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>733</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>733</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>733</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>733</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>733</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>733</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>733</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>733</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>733</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>733</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>733</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>733</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>733</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>733</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>733</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>733</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>733</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>733</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>733</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>733</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>733</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>733</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>733</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>733</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>733</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>733</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>733</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>733</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>733</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>733</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>733</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>758</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>758</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>758</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>758</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>758</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>758</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>758</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>758</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>758</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>758</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>758</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>758</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>724</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>724</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>724</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>724</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>724</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>724</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>724</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>724</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>724</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>724</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>724</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>724</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>724</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>724</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>724</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12092,7 +14659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB304941-4562-46A1-BF92-E2BAD3F0C635}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KayJan/test-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F4FB6B-67EE-5F46-B663-37E92BC85FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9BD564-8970-4B46-98A7-C6AF3064BE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5320" windowWidth="38400" windowHeight="21100" tabRatio="829" firstSheet="12" activeTab="23" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
+    <workbookView xWindow="-19200" yWindow="-5320" windowWidth="19200" windowHeight="21100" tabRatio="829" firstSheet="12" activeTab="23" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Deck" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1308">
   <si>
     <t>Card</t>
   </si>
@@ -3488,15 +3488,9 @@
     <t>What musical instrument do you wish you could play?</t>
   </si>
   <si>
-    <t>When has a mundane occurrence or chance completely changed the course of your life? What is the nicest compliment you've received?</t>
-  </si>
-  <si>
     <t>What age would you like to live to?</t>
   </si>
   <si>
-    <t>If you could travel to any country in the world for one month, where would you go? What is your favorite memory of someone who isn't in your life anymore?</t>
-  </si>
-  <si>
     <t>How superstitious are you?</t>
   </si>
   <si>
@@ -3521,12 +3515,6 @@
     <t xml:space="preserve">If you had a friend who spoke to you the same way you speak to yourself, would you keep them as a friend? </t>
   </si>
   <si>
-    <t>What petty thing that people do really gets on your nerves? What brings meaning to your life?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is something you wish you could say to people but can’t? What are some of the most attractive traits a person can have? What's a secret you've never told anyone? </t>
-  </si>
-  <si>
     <t>What small pleasures do you enjoy the most?</t>
   </si>
   <si>
@@ -3539,9 +3527,6 @@
     <t>What have you struggled with your entire life?</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the most significant change you would like to make in your life? What do you want out of life? </t>
-  </si>
-  <si>
     <t>What calms you down the most?</t>
   </si>
   <si>
@@ -3566,9 +3551,6 @@
     <t>Who do you act nice around but secretly dislike?</t>
   </si>
   <si>
-    <t>If money was no object, and with no input from me, how would you decorate your / our house? How good are you at reading people?</t>
-  </si>
-  <si>
     <t>Are you hopeful about your future?</t>
   </si>
   <si>
@@ -3626,9 +3608,6 @@
     <t>What was the hardest lesson you’ve had to learn?</t>
   </si>
   <si>
-    <t>Would you take 3 million dollars if it meant that the person you hate most in the world gets 9 million? What part of you as a person still needs a lot of work?</t>
-  </si>
-  <si>
     <t>What are some words of wisdom that have stuck with you all these years?</t>
   </si>
   <si>
@@ -3644,18 +3623,12 @@
     <t>Tell me about a time you almost died.</t>
   </si>
   <si>
-    <t>Are you ashamed of anything you did in the past? If you are comfortable talking about it, what was it? Do you prefer living in the countryside, in a town, or in a big city? Why?</t>
-  </si>
-  <si>
     <t>What's your fondest memory of a tree?</t>
   </si>
   <si>
     <t>What are some of the most pleasant sensations for you?</t>
   </si>
   <si>
-    <t>Are you happy with the career path you chose or do you wish you had chosen a different career? What's the most unethical thing you do regularly?</t>
-  </si>
-  <si>
     <t>What is way more difficult than it sounds?</t>
   </si>
   <si>
@@ -3716,9 +3689,6 @@
     <t>What animal are you most afraid of?</t>
   </si>
   <si>
-    <t xml:space="preserve">What scandal happened in your neighbor or town when you were growing up? How well do you think you would handle prison? </t>
-  </si>
-  <si>
     <t>What's the most awkward social situation you've been in?</t>
   </si>
   <si>
@@ -3731,51 +3701,27 @@
     <t>What's the most peaceful/restful night of sleep you've had?</t>
   </si>
   <si>
-    <t xml:space="preserve">What's the most dangerous, thrill-seeking thing you would consider doing? What's your biggest regret? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Is it better to trust people or not trust people? And why? </t>
   </si>
   <si>
-    <t>What do you think your best and worst personality traits are? Who do you miss the most?</t>
-  </si>
-  <si>
     <t>What is the hardest life lesson you've had to learn?</t>
   </si>
   <si>
     <t xml:space="preserve">What do you take for granted? </t>
   </si>
   <si>
-    <t>What's the most stressful situation you've been in? How did you handle it? What's the most ambitious thing you've attempted?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often do you change your opinions or how you view the world? What's the biggest opportunity you were given? </t>
-  </si>
-  <si>
-    <t>What is something we should enjoy more because it won't be around for long? What's a question you wish people would ask more often?</t>
-  </si>
-  <si>
     <t>What is the saddest thing about your life that nobody knows?</t>
   </si>
   <si>
     <t xml:space="preserve">What are you most sentimental about? </t>
   </si>
   <si>
-    <t>Do you think people more people look down on you or up to you? Why? What question do you most want an answer to?</t>
-  </si>
-  <si>
     <t>What are some of the telltale signs of a shallow person?</t>
   </si>
   <si>
     <t xml:space="preserve">What do you look forward to most in the day? </t>
   </si>
   <si>
-    <t>If you could instantly learn a talent or skill, what would you want to know how to do? When is your favorite time of day?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What are the best and worst things about the period of history we are living through? What's the most rewarding thing in your daily routine? </t>
-  </si>
-  <si>
     <t>What weird thing stresses you out more than it should?</t>
   </si>
   <si>
@@ -3791,12 +3737,6 @@
     <t>What's the best way for someone to improve themselves?</t>
   </si>
   <si>
-    <t xml:space="preserve">What was the most productive time in your life? How about the least productive? What three words best describe you? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">How well do you function under a lot of pressure? What is your weakness? </t>
-  </si>
-  <si>
     <t>What are two of the most important events in your life?</t>
   </si>
   <si>
@@ -3845,36 +3785,21 @@
     <t xml:space="preserve">Children are often very similar to their parents. How do you want to be different than your parents? And how do you want to be similar to them? </t>
   </si>
   <si>
-    <t>What school subjects did you like and hate most when you were in school? What unique game of pretend did you frequently play as a child?</t>
-  </si>
-  <si>
     <t>What movie seriously scarred you as a child or as an adult?</t>
   </si>
   <si>
     <t xml:space="preserve">What irrational fears did you have as a child? </t>
   </si>
   <si>
-    <t xml:space="preserve">What toy played the most significant part in your childhood? What are some of your earliest memories? </t>
-  </si>
-  <si>
-    <t>What is something I did that you thought was exceptionally kind or thoughtful? What new hobbies or activities would you like to try together as a couple? What's our greatest strength as a couple?</t>
-  </si>
-  <si>
     <t xml:space="preserve">What could we do to make our relationship stronger? </t>
   </si>
   <si>
-    <t>What is something small that we can do daily for each other to make our lives better? How much space / alone time should people in a relationship give each other?</t>
-  </si>
-  <si>
     <t>What questions should partners ask each other before getting married?</t>
   </si>
   <si>
     <t xml:space="preserve">What do I do that makes you the happiest? </t>
   </si>
   <si>
-    <t>How important is it for individuals in a relationship to maintain their own separate identity? What makes our relationship better than other relationships?</t>
-  </si>
-  <si>
     <t>What do you think our life will look like in 10 years?</t>
   </si>
   <si>
@@ -3911,9 +3836,6 @@
     <t>What are some things you really like about me?</t>
   </si>
   <si>
-    <t>What do you think the hardest thing about marriage/being in a relationship is? What can I do to most help us?</t>
-  </si>
-  <si>
     <t>What do you see as your role in our relationship?</t>
   </si>
   <si>
@@ -3923,9 +3845,6 @@
     <t>What makes us different than other couples?</t>
   </si>
   <si>
-    <t>What do you think would be the best way to strengthen our relationship? What are some of your relationship goals?</t>
-  </si>
-  <si>
     <t>How realistic do you think couples in movies and TV are?</t>
   </si>
   <si>
@@ -3950,9 +3869,6 @@
     <t>Besides orgasms, what is the best part of sex?</t>
   </si>
   <si>
-    <t>What’s the most embarrassing thing that has happened to you while having sex? When am I at my sexiest?</t>
-  </si>
-  <si>
     <t>What would you like me to do in the bedroom to spice things up a bit?</t>
   </si>
   <si>
@@ -3960,9 +3876,6 @@
   </si>
   <si>
     <t xml:space="preserve">What do I do outside the bedroom that turns you on? </t>
-  </si>
-  <si>
-    <t>Do you eventually want to have children? How many children do you eventually want? Why? What's the worst parenting mistake a couple can make?</t>
   </si>
   <si>
     <t>What is the best way to raise children?</t>
@@ -3985,6 +3898,192 @@
   </si>
   <si>
     <t>Relationship Edition</t>
+  </si>
+  <si>
+    <t>What is the nicest compliment you’ve received?</t>
+  </si>
+  <si>
+    <t>When has a mundane occurrence or chance completely changed the course of your life?</t>
+  </si>
+  <si>
+    <t>If you could travel to any country in the world for one month, where would you go?</t>
+  </si>
+  <si>
+    <t>What is your favorite memory of someone who isn't in your life anymore?</t>
+  </si>
+  <si>
+    <t>What is something you wish you could say to people but can’t?</t>
+  </si>
+  <si>
+    <t>What are some of the most attractive traits a person can have?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's a secret you've never told anyone? </t>
+  </si>
+  <si>
+    <t>If money was no object, and with no input from me, how would you decorate your / our house?</t>
+  </si>
+  <si>
+    <t>How good are you at reading people?</t>
+  </si>
+  <si>
+    <t>Would you take 3 million dollars if it meant that the person you hate most in the world gets 9 million?</t>
+  </si>
+  <si>
+    <t>What part of you as a person still needs a lot of work?</t>
+  </si>
+  <si>
+    <t>Are you ashamed of anything you did in the past? If you are comfortable talking about it, what was it?</t>
+  </si>
+  <si>
+    <t>Do you prefer living in the countryside, in a town, or in a big city? Why?</t>
+  </si>
+  <si>
+    <t>Are you happy with the career path you chose or do you wish you had chosen a different career?</t>
+  </si>
+  <si>
+    <t>What's the most unethical thing you do regularly?</t>
+  </si>
+  <si>
+    <t>What scandal happened in your neighbor or town when you were growing up?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How well do you think you would handle prison? </t>
+  </si>
+  <si>
+    <t>What's the most dangerous, thrill-seeking thing you would consider doing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's your biggest regret? </t>
+  </si>
+  <si>
+    <t>What do you think your best and worst personality traits are?</t>
+  </si>
+  <si>
+    <t>Who do you miss the most?</t>
+  </si>
+  <si>
+    <t>What's the most stressful situation you've been in? How did you handle it?</t>
+  </si>
+  <si>
+    <t>What's the most ambitious thing you've attempted?</t>
+  </si>
+  <si>
+    <t>How often do you change your opinions or how you view the world?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the biggest opportunity you were given? </t>
+  </si>
+  <si>
+    <t>What is something we should enjoy more because it won't be around for long?</t>
+  </si>
+  <si>
+    <t>What's a question you wish people would ask more often?</t>
+  </si>
+  <si>
+    <t>Do you think people more people look down on you or up to you? Why?</t>
+  </si>
+  <si>
+    <t>What question do you most want an answer to?</t>
+  </si>
+  <si>
+    <t>If you could instantly learn a talent or skill, what would you want to know how to do?</t>
+  </si>
+  <si>
+    <t>When is your favorite time of day?</t>
+  </si>
+  <si>
+    <t>What are the best and worst things about the period of history we are living through?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the most rewarding thing in your daily routine? </t>
+  </si>
+  <si>
+    <t>What was the most productive time in your life? How about the least productive?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What three words best describe you? </t>
+  </si>
+  <si>
+    <t>What's the worst parenting mistake a couple can make?</t>
+  </si>
+  <si>
+    <t>What do you think would be the best way to strengthen our relationship?</t>
+  </si>
+  <si>
+    <t>What are some of your relationship goals?</t>
+  </si>
+  <si>
+    <t>How important is it for individuals in a relationship to maintain their own separate identity?</t>
+  </si>
+  <si>
+    <t>What makes our relationship better than other relationships?</t>
+  </si>
+  <si>
+    <t>What is something small that we can do daily for each other to make our lives better?</t>
+  </si>
+  <si>
+    <t>How much space / alone time should people in a relationship give each other?</t>
+  </si>
+  <si>
+    <t>What is something I did that you thought was exceptionally kind or thoughtful?</t>
+  </si>
+  <si>
+    <t>What new hobbies or activities would you like to try together as a couple?</t>
+  </si>
+  <si>
+    <t>What's our greatest strength as a couple?</t>
+  </si>
+  <si>
+    <t>How well do you function under a lot of pressure?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your weakness? </t>
+  </si>
+  <si>
+    <t>What school subjects did you like and hate most when you were in school?</t>
+  </si>
+  <si>
+    <t>What unique game of pretend did you frequently play as a child?</t>
+  </si>
+  <si>
+    <t>What toy played the most significant part in your childhood?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are some of your earliest memories? </t>
+  </si>
+  <si>
+    <t>What petty thing that people do really gets on your nerves?</t>
+  </si>
+  <si>
+    <t>What brings meaning to your life?</t>
+  </si>
+  <si>
+    <t>What is the most significant change you would like to make in your life?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you want out of life? </t>
+  </si>
+  <si>
+    <t>What does your perfect date look like?</t>
+  </si>
+  <si>
+    <t>How often would you like to go out on a date?</t>
+  </si>
+  <si>
+    <t>What do you think the hardest thing about marriage/being in a relationship is?</t>
+  </si>
+  <si>
+    <t>What can I do to most help us?</t>
+  </si>
+  <si>
+    <t>What’s the most embarrassing thing that has happened to you while having sex?</t>
+  </si>
+  <si>
+    <t>When am I at my sexiest?</t>
+  </si>
+  <si>
+    <t>Do you eventually want to have children? How many children do you eventually want? Why?</t>
   </si>
 </sst>
 </file>
@@ -4056,13 +4155,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4093,7 +4192,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1651000" y="4953000"/>
+          <a:off x="1651000" y="5334000"/>
           <a:ext cx="3060700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12230,7 +12329,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA8A9E1-0154-BF46-81F5-4F5B0654000C}">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
   </sheetViews>
@@ -12249,7 +12348,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1274</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -12257,7 +12356,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1273</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -12400,7 +12499,7 @@
         <v>733</v>
       </c>
       <c r="C17" t="s">
-        <v>1110</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -12411,7 +12510,7 @@
         <v>733</v>
       </c>
       <c r="C18" t="s">
-        <v>1111</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -12422,7 +12521,7 @@
         <v>733</v>
       </c>
       <c r="C19" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -12433,7 +12532,7 @@
         <v>733</v>
       </c>
       <c r="C20" t="s">
-        <v>1113</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -12444,7 +12543,7 @@
         <v>733</v>
       </c>
       <c r="C21" t="s">
-        <v>1114</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -12455,7 +12554,7 @@
         <v>733</v>
       </c>
       <c r="C22" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -12466,7 +12565,7 @@
         <v>733</v>
       </c>
       <c r="C23" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -12477,7 +12576,7 @@
         <v>733</v>
       </c>
       <c r="C24" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -12488,7 +12587,7 @@
         <v>733</v>
       </c>
       <c r="C25" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -12499,7 +12598,7 @@
         <v>733</v>
       </c>
       <c r="C26" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -12510,7 +12609,7 @@
         <v>733</v>
       </c>
       <c r="C27" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -12521,7 +12620,7 @@
         <v>733</v>
       </c>
       <c r="C28" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -12532,7 +12631,7 @@
         <v>733</v>
       </c>
       <c r="C29" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -12543,7 +12642,7 @@
         <v>733</v>
       </c>
       <c r="C30" t="s">
-        <v>1123</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -12554,7 +12653,7 @@
         <v>733</v>
       </c>
       <c r="C31" t="s">
-        <v>1124</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -12565,7 +12664,7 @@
         <v>733</v>
       </c>
       <c r="C32" t="s">
-        <v>1125</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -12576,7 +12675,7 @@
         <v>733</v>
       </c>
       <c r="C33" t="s">
-        <v>1126</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -12587,7 +12686,7 @@
         <v>733</v>
       </c>
       <c r="C34" t="s">
-        <v>1127</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -12598,7 +12697,7 @@
         <v>733</v>
       </c>
       <c r="C35" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -12609,7 +12708,7 @@
         <v>733</v>
       </c>
       <c r="C36" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -12620,7 +12719,7 @@
         <v>733</v>
       </c>
       <c r="C37" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -12631,7 +12730,7 @@
         <v>733</v>
       </c>
       <c r="C38" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -12642,7 +12741,7 @@
         <v>733</v>
       </c>
       <c r="C39" t="s">
-        <v>1132</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -12653,7 +12752,7 @@
         <v>733</v>
       </c>
       <c r="C40" t="s">
-        <v>1133</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -12664,7 +12763,7 @@
         <v>733</v>
       </c>
       <c r="C41" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -12675,7 +12774,7 @@
         <v>733</v>
       </c>
       <c r="C42" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -12686,7 +12785,7 @@
         <v>733</v>
       </c>
       <c r="C43" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -12697,7 +12796,7 @@
         <v>733</v>
       </c>
       <c r="C44" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -12708,7 +12807,7 @@
         <v>733</v>
       </c>
       <c r="C45" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -12719,7 +12818,7 @@
         <v>733</v>
       </c>
       <c r="C46" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -12730,7 +12829,7 @@
         <v>733</v>
       </c>
       <c r="C47" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -12741,7 +12840,7 @@
         <v>733</v>
       </c>
       <c r="C48" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -12752,7 +12851,7 @@
         <v>733</v>
       </c>
       <c r="C49" t="s">
-        <v>1142</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -12763,7 +12862,7 @@
         <v>733</v>
       </c>
       <c r="C50" t="s">
-        <v>1143</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -12774,7 +12873,7 @@
         <v>733</v>
       </c>
       <c r="C51" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -12785,7 +12884,7 @@
         <v>733</v>
       </c>
       <c r="C52" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -12796,7 +12895,7 @@
         <v>733</v>
       </c>
       <c r="C53" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -12807,7 +12906,7 @@
         <v>733</v>
       </c>
       <c r="C54" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -12818,7 +12917,7 @@
         <v>733</v>
       </c>
       <c r="C55" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -12829,7 +12928,7 @@
         <v>733</v>
       </c>
       <c r="C56" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -12840,7 +12939,7 @@
         <v>733</v>
       </c>
       <c r="C57" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -12851,7 +12950,7 @@
         <v>733</v>
       </c>
       <c r="C58" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -12862,7 +12961,7 @@
         <v>733</v>
       </c>
       <c r="C59" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -12873,7 +12972,7 @@
         <v>733</v>
       </c>
       <c r="C60" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -12884,7 +12983,7 @@
         <v>733</v>
       </c>
       <c r="C61" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -12895,7 +12994,7 @@
         <v>733</v>
       </c>
       <c r="C62" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -12906,7 +13005,7 @@
         <v>733</v>
       </c>
       <c r="C63" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -12917,7 +13016,7 @@
         <v>733</v>
       </c>
       <c r="C64" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -12928,7 +13027,7 @@
         <v>733</v>
       </c>
       <c r="C65" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -12939,7 +13038,7 @@
         <v>733</v>
       </c>
       <c r="C66" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -12950,7 +13049,7 @@
         <v>733</v>
       </c>
       <c r="C67" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -12961,7 +13060,7 @@
         <v>733</v>
       </c>
       <c r="C68" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -12972,7 +13071,7 @@
         <v>733</v>
       </c>
       <c r="C69" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -12983,7 +13082,7 @@
         <v>733</v>
       </c>
       <c r="C70" t="s">
-        <v>1163</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -12994,7 +13093,7 @@
         <v>733</v>
       </c>
       <c r="C71" t="s">
-        <v>1164</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -13005,7 +13104,7 @@
         <v>733</v>
       </c>
       <c r="C72" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -13016,7 +13115,7 @@
         <v>733</v>
       </c>
       <c r="C73" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -13027,7 +13126,7 @@
         <v>733</v>
       </c>
       <c r="C74" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -13038,7 +13137,7 @@
         <v>733</v>
       </c>
       <c r="C75" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -13049,7 +13148,7 @@
         <v>733</v>
       </c>
       <c r="C76" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -13060,7 +13159,7 @@
         <v>733</v>
       </c>
       <c r="C77" t="s">
-        <v>1170</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -13071,7 +13170,7 @@
         <v>733</v>
       </c>
       <c r="C78" t="s">
-        <v>1171</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -13082,7 +13181,7 @@
         <v>733</v>
       </c>
       <c r="C79" t="s">
-        <v>1172</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -13093,7 +13192,7 @@
         <v>733</v>
       </c>
       <c r="C80" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -13104,7 +13203,7 @@
         <v>733</v>
       </c>
       <c r="C81" t="s">
-        <v>1174</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -13115,7 +13214,7 @@
         <v>733</v>
       </c>
       <c r="C82" t="s">
-        <v>1175</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -13126,7 +13225,7 @@
         <v>733</v>
       </c>
       <c r="C83" t="s">
-        <v>1176</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -13137,7 +13236,7 @@
         <v>733</v>
       </c>
       <c r="C84" t="s">
-        <v>1177</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -13148,7 +13247,7 @@
         <v>733</v>
       </c>
       <c r="C85" t="s">
-        <v>1178</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -13159,7 +13258,7 @@
         <v>733</v>
       </c>
       <c r="C86" t="s">
-        <v>1179</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -13170,7 +13269,7 @@
         <v>733</v>
       </c>
       <c r="C87" t="s">
-        <v>1180</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -13181,7 +13280,7 @@
         <v>733</v>
       </c>
       <c r="C88" t="s">
-        <v>1181</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -13192,7 +13291,7 @@
         <v>733</v>
       </c>
       <c r="C89" t="s">
-        <v>1182</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -13203,7 +13302,7 @@
         <v>733</v>
       </c>
       <c r="C90" t="s">
-        <v>1183</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -13214,7 +13313,7 @@
         <v>733</v>
       </c>
       <c r="C91" t="s">
-        <v>1184</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -13225,7 +13324,7 @@
         <v>733</v>
       </c>
       <c r="C92" t="s">
-        <v>1185</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -13236,7 +13335,7 @@
         <v>733</v>
       </c>
       <c r="C93" t="s">
-        <v>1186</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -13247,7 +13346,7 @@
         <v>733</v>
       </c>
       <c r="C94" t="s">
-        <v>1187</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -13258,7 +13357,7 @@
         <v>733</v>
       </c>
       <c r="C95" t="s">
-        <v>1188</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -13269,7 +13368,7 @@
         <v>733</v>
       </c>
       <c r="C96" t="s">
-        <v>1189</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -13280,7 +13379,7 @@
         <v>733</v>
       </c>
       <c r="C97" t="s">
-        <v>1190</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -13291,7 +13390,7 @@
         <v>733</v>
       </c>
       <c r="C98" t="s">
-        <v>1191</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -13302,7 +13401,7 @@
         <v>733</v>
       </c>
       <c r="C99" t="s">
-        <v>1192</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -13313,7 +13412,7 @@
         <v>733</v>
       </c>
       <c r="C100" t="s">
-        <v>1193</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -13324,7 +13423,7 @@
         <v>733</v>
       </c>
       <c r="C101" t="s">
-        <v>1194</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -13335,7 +13434,7 @@
         <v>733</v>
       </c>
       <c r="C102" t="s">
-        <v>1195</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -13346,7 +13445,7 @@
         <v>733</v>
       </c>
       <c r="C103" t="s">
-        <v>1196</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -13357,7 +13456,7 @@
         <v>733</v>
       </c>
       <c r="C104" t="s">
-        <v>1197</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -13368,7 +13467,7 @@
         <v>733</v>
       </c>
       <c r="C105" t="s">
-        <v>1198</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -13379,7 +13478,7 @@
         <v>733</v>
       </c>
       <c r="C106" t="s">
-        <v>1199</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -13390,7 +13489,7 @@
         <v>733</v>
       </c>
       <c r="C107" t="s">
-        <v>1200</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -13401,7 +13500,7 @@
         <v>733</v>
       </c>
       <c r="C108" t="s">
-        <v>1201</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -13412,7 +13511,7 @@
         <v>733</v>
       </c>
       <c r="C109" t="s">
-        <v>1202</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -13423,7 +13522,7 @@
         <v>733</v>
       </c>
       <c r="C110" t="s">
-        <v>1203</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -13434,7 +13533,7 @@
         <v>733</v>
       </c>
       <c r="C111" t="s">
-        <v>1204</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -13445,7 +13544,7 @@
         <v>733</v>
       </c>
       <c r="C112" t="s">
-        <v>1205</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -13456,7 +13555,7 @@
         <v>733</v>
       </c>
       <c r="C113" t="s">
-        <v>1206</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -13467,7 +13566,7 @@
         <v>733</v>
       </c>
       <c r="C114" t="s">
-        <v>1207</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -13478,7 +13577,7 @@
         <v>733</v>
       </c>
       <c r="C115" t="s">
-        <v>1208</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -13489,7 +13588,7 @@
         <v>733</v>
       </c>
       <c r="C116" t="s">
-        <v>1209</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -13500,7 +13599,7 @@
         <v>733</v>
       </c>
       <c r="C117" t="s">
-        <v>1210</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -13511,7 +13610,7 @@
         <v>733</v>
       </c>
       <c r="C118" t="s">
-        <v>1211</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -13522,7 +13621,7 @@
         <v>733</v>
       </c>
       <c r="C119" t="s">
-        <v>1212</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -13533,7 +13632,7 @@
         <v>733</v>
       </c>
       <c r="C120" t="s">
-        <v>1213</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -13544,7 +13643,7 @@
         <v>733</v>
       </c>
       <c r="C121" t="s">
-        <v>1214</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -13555,7 +13654,7 @@
         <v>733</v>
       </c>
       <c r="C122" t="s">
-        <v>1215</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -13566,7 +13665,7 @@
         <v>733</v>
       </c>
       <c r="C123" t="s">
-        <v>1216</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -13577,7 +13676,7 @@
         <v>733</v>
       </c>
       <c r="C124" t="s">
-        <v>1217</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -13588,7 +13687,7 @@
         <v>733</v>
       </c>
       <c r="C125" t="s">
-        <v>1218</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -13599,7 +13698,7 @@
         <v>733</v>
       </c>
       <c r="C126" t="s">
-        <v>1219</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -13610,403 +13709,403 @@
         <v>733</v>
       </c>
       <c r="C127" t="s">
-        <v>1220</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C128" t="s">
-        <v>1221</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C129" t="s">
-        <v>1222</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C130" t="s">
-        <v>1223</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C131" t="s">
-        <v>1224</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C132" t="s">
-        <v>1225</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C133" t="s">
-        <v>1226</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C134" t="s">
-        <v>1227</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C135" t="s">
-        <v>1228</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C136" t="s">
-        <v>1229</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C137" t="s">
-        <v>1230</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C138" t="s">
-        <v>1231</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="C139" t="s">
-        <v>1232</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="C140" t="s">
-        <v>1233</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="C141" t="s">
-        <v>1234</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="C142" t="s">
-        <v>1235</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="C143" t="s">
-        <v>1236</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="C144" t="s">
-        <v>1237</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="C145" t="s">
-        <v>1238</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="C146" t="s">
-        <v>1239</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="C147" t="s">
-        <v>1240</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="C148" t="s">
-        <v>1241</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>733</v>
       </c>
       <c r="C149" t="s">
-        <v>1242</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C150" t="s">
-        <v>1243</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C151" t="s">
-        <v>1244</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C152" t="s">
-        <v>1245</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C153" t="s">
-        <v>1246</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C154" t="s">
-        <v>1247</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C155" t="s">
-        <v>1248</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C156" t="s">
-        <v>1249</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C157" t="s">
-        <v>1250</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C158" t="s">
-        <v>1251</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C159" t="s">
-        <v>1252</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C160" t="s">
-        <v>1253</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C161" t="s">
-        <v>1254</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C162" t="s">
-        <v>1255</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>758</v>
       </c>
       <c r="C163" t="s">
-        <v>1256</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -14017,172 +14116,535 @@
         <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>1257</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>1258</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>1259</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>1260</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>1261</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>1262</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>1263</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>1264</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>1265</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>1266</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>1267</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>1268</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>1269</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>1270</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>724</v>
+        <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>1271</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>3</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>3</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>3</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>3</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>3</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>3</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>3</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>3</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>3</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>3</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
         <v>4</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B196" t="s">
         <v>724</v>
       </c>
-      <c r="C179" t="s">
-        <v>1272</v>
+      <c r="C196" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>724</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>724</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199" t="s">
+        <v>724</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>724</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>724</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>724</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>724</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>724</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>724</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>724</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207" t="s">
+        <v>724</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>724</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209" t="s">
+        <v>724</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>724</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211" t="s">
+        <v>724</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>724</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1243</v>
       </c>
     </row>
   </sheetData>

--- a/data/WNRS.xlsx
+++ b/data/WNRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KayJan/test-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A801337-F40C-8347-B089-1FAE94CD6B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C9BFFC-3310-C849-AADC-1B5174CD1A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-5320" windowWidth="38400" windowHeight="21100" tabRatio="829" firstSheet="11" activeTab="23" xr2:uid="{35520F66-FEA5-4575-927A-C3FC8E8C1344}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="1325">
   <si>
     <t>Card</t>
   </si>
@@ -4084,6 +4084,57 @@
   </si>
   <si>
     <t xml:space="preserve">What's your favourite gift I've given you? </t>
+  </si>
+  <si>
+    <t>Will you feel hurt if I start watching a brand new TV series without asking you first if you'd like to join me on the journey?</t>
+  </si>
+  <si>
+    <t>When we order food should I assume we're sharing what's on each other's plate or is your meal off limits to me?</t>
+  </si>
+  <si>
+    <t>Are we generally splitting things down the middle when we pay for stuff or is one of us going to pay more?</t>
+  </si>
+  <si>
+    <t>When it comes to presents, what is your expectations (birthdays, holidays, anniversaries)?</t>
+  </si>
+  <si>
+    <t>Are we to assume that certain days or evenings are always spent together or do I need to lock down plans with you as the week rolls on?</t>
+  </si>
+  <si>
+    <t>Do you have any doubts or fears when you make commitment?</t>
+  </si>
+  <si>
+    <t>Are we going to combine finances or keep things separate? What about a big joint purchase? Do you have any debt?</t>
+  </si>
+  <si>
+    <t>Do you want any kids or want more kids? What about fur babies?</t>
+  </si>
+  <si>
+    <t>Do you want to be in a monogamous relationship forever, a poly relationship forever or leave things open and check in every year?</t>
+  </si>
+  <si>
+    <t>How can we improve our communication? Is there anything I can do that can make it easier for you to bring up difficult topics?</t>
+  </si>
+  <si>
+    <t>Under what circumstances would you start considering divorce?</t>
+  </si>
+  <si>
+    <t>What would you do if you are falling out of love? Would you tell me? Would you tell your therapist or friend first?</t>
+  </si>
+  <si>
+    <t>What do you consider cheating? Is it flirting, make outs, or a close emotional relationship with someone you could be attracted to?</t>
+  </si>
+  <si>
+    <t>What emoji should I include if I'm being funny or sarcastic in a text so you don't get the wrong idea?</t>
+  </si>
+  <si>
+    <t>Should I always take your side when you're complaining about someone you can't stand or should I gently challenge you if I think you're being unfair?</t>
+  </si>
+  <si>
+    <t>How often are we going to see your family? Do you want your parents to move in with us if they eventually need more care?</t>
+  </si>
+  <si>
+    <t>What secrets are okay to keep private? When does omitting information feel deceitful?</t>
   </si>
 </sst>
 </file>
@@ -12321,11 +12372,9 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA8A9E1-0154-BF46-81F5-4F5B0654000C}">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -14639,6 +14688,193 @@
       </c>
       <c r="C212" t="s">
         <v>1216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>711</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>711</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>711</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>711</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>711</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>5</v>
+      </c>
+      <c r="B218" t="s">
+        <v>711</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>5</v>
+      </c>
+      <c r="B219" t="s">
+        <v>711</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>711</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>5</v>
+      </c>
+      <c r="B221" t="s">
+        <v>711</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>5</v>
+      </c>
+      <c r="B222" t="s">
+        <v>711</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>711</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>5</v>
+      </c>
+      <c r="B224" t="s">
+        <v>711</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>5</v>
+      </c>
+      <c r="B225" t="s">
+        <v>711</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>711</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>5</v>
+      </c>
+      <c r="B227" t="s">
+        <v>711</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228" t="s">
+        <v>711</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>5</v>
+      </c>
+      <c r="B229" t="s">
+        <v>711</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1318</v>
       </c>
     </row>
   </sheetData>
@@ -15133,7 +15369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -16682,7 +16918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
